--- a/result/line_final.xlsx
+++ b/result/line_final.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678954D6-C396-4DB7-B290-00D8C2443465}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -67,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,27 +123,8 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -196,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,27 +203,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,24 +237,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,22 +412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,2832 +463,2827 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1.6574351839212671</v>
+        <v>4.195668733516453</v>
       </c>
       <c r="C2">
-        <v>-15.46776373102451</v>
+        <v>-4.71489026379087</v>
       </c>
       <c r="D2">
-        <v>1.668775127981688</v>
+        <v>-4.193804890027589</v>
       </c>
       <c r="E2">
-        <v>15.473587702295051</v>
+        <v>4.715847496990089</v>
       </c>
       <c r="F2">
-        <v>1.133994406042182E-2</v>
+        <v>0.001863843488864703</v>
       </c>
       <c r="G2">
-        <v>5.8239712705372426E-3</v>
+        <v>0.000957233199219587</v>
       </c>
       <c r="H2">
-        <v>0.81649456705953005</v>
+        <v>0.3310187265797773</v>
       </c>
       <c r="I2">
-        <v>0.81649456705953016</v>
+        <v>0.3310187265797774</v>
       </c>
       <c r="J2">
-        <v>0.81649456705953016</v>
+        <v>0.3310187265797774</v>
       </c>
       <c r="K2">
-        <v>1.0000000000000031</v>
+        <v>1.000737413502135</v>
       </c>
       <c r="L2">
-        <v>0.2102930950483565</v>
+        <v>-0.2572647854030278</v>
       </c>
       <c r="M2">
-        <v>1.0004501500371961</v>
+        <v>1.000654388605339</v>
       </c>
       <c r="N2">
-        <v>0.17106751141965121</v>
+        <v>-0.2756832761110466</v>
       </c>
       <c r="O2">
-        <v>54.432971137302012</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>66.20374531595547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.521775127979931</v>
+        <v>3.615802711639664</v>
       </c>
       <c r="C3">
-        <v>22.96657070847801</v>
+        <v>-4.715848831159124</v>
       </c>
       <c r="D3">
-        <v>1.5465779821318399</v>
+        <v>-3.614150113403239</v>
       </c>
       <c r="E3">
-        <v>-22.953832452518508</v>
+        <v>4.716697572969437</v>
       </c>
       <c r="F3">
-        <v>2.4802854151908749E-2</v>
+        <v>0.001652598236424829</v>
       </c>
       <c r="G3">
-        <v>1.273825595949774E-2</v>
+        <v>0.0008487418103131361</v>
       </c>
       <c r="H3">
-        <v>1.207532067896159</v>
+        <v>0.3116961842142346</v>
       </c>
       <c r="I3">
-        <v>1.207532067896159</v>
+        <v>0.3116961842142346</v>
       </c>
       <c r="J3">
-        <v>1.207532067896159</v>
+        <v>0.3116961842142346</v>
       </c>
       <c r="K3">
-        <v>1.0004501500371961</v>
+        <v>1.000654388605339</v>
       </c>
       <c r="L3">
-        <v>0.17106751141965121</v>
+        <v>-0.2756832761110466</v>
       </c>
       <c r="M3">
-        <v>0.99996957877683101</v>
+        <v>1.000598529972923</v>
       </c>
       <c r="N3">
-        <v>0.23480096949241161</v>
+        <v>-0.2933083248813378</v>
       </c>
       <c r="O3">
-        <v>80.502137859743954</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62.33923684284692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.314545573582304</v>
+        <v>2.981309709306671</v>
       </c>
       <c r="C4">
-        <v>4.3210308881405162</v>
+        <v>-4.461878208437705</v>
       </c>
       <c r="D4">
-        <v>1.315501534607793</v>
+        <v>-2.979961930417673</v>
       </c>
       <c r="E4">
-        <v>-4.3205399254410057</v>
+        <v>4.4625704010523</v>
       </c>
       <c r="F4">
-        <v>9.5596102548856088E-4</v>
+        <v>0.001347778888998619</v>
       </c>
       <c r="G4">
-        <v>4.9096269951043325E-4</v>
+        <v>0.0006921926145952995</v>
       </c>
       <c r="H4">
-        <v>0.2370652709899066</v>
+        <v>0.2814862387161566</v>
       </c>
       <c r="I4">
-        <v>0.2370652709899066</v>
+        <v>0.2814862387161566</v>
       </c>
       <c r="J4">
-        <v>0.2370652709899066</v>
+        <v>0.2814862387161566</v>
       </c>
       <c r="K4">
-        <v>0.99996957877683101</v>
+        <v>1.000598529972923</v>
       </c>
       <c r="L4">
-        <v>0.23480096949241161</v>
+        <v>-0.2933083248813378</v>
       </c>
       <c r="M4">
-        <v>0.99992721342075497</v>
+        <v>1.000566266053257</v>
       </c>
       <c r="N4">
-        <v>0.2482162913988625</v>
+        <v>-0.3093799700521505</v>
       </c>
       <c r="O4">
-        <v>23.706527098990659</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>56.29724774323132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.64585973881465486</v>
+        <v>0.9670866908793831</v>
       </c>
       <c r="C5">
-        <v>-8.9212768915078957</v>
+        <v>-2.452437301563838</v>
       </c>
       <c r="D5">
-        <v>0.64960934093972178</v>
+        <v>-0.9667613996382226</v>
       </c>
       <c r="E5">
-        <v>8.9232026130931175</v>
+        <v>2.452604364719792</v>
       </c>
       <c r="F5">
-        <v>3.7496021250669198E-3</v>
+        <v>0.0003252912411605413</v>
       </c>
       <c r="G5">
-        <v>1.9257215852217511E-3</v>
+        <v>0.0001670631559544944</v>
       </c>
       <c r="H5">
-        <v>0.4695052322853816</v>
+        <v>0.1382878510812738</v>
       </c>
       <c r="I5">
-        <v>0.46950523228538149</v>
+        <v>0.1382878510812738</v>
       </c>
       <c r="J5">
-        <v>0.4695052322853816</v>
+        <v>0.1382878510812738</v>
       </c>
       <c r="K5">
-        <v>0.99992721342075497</v>
+        <v>1.000566266053257</v>
       </c>
       <c r="L5">
-        <v>0.2482162913988625</v>
+        <v>-0.3093799700521505</v>
       </c>
       <c r="M5">
-        <v>1.000172277403498</v>
+        <v>1.000579971267382</v>
       </c>
       <c r="N5">
-        <v>0.225156845726213</v>
+        <v>-0.3172888359170663</v>
       </c>
       <c r="O5">
-        <v>46.95052322853816</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>55.31514043250954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.52430934094192783</v>
+        <v>0.6322385167799647</v>
       </c>
       <c r="C6">
-        <v>8.9276622003827573</v>
+        <v>-2.118095837139762</v>
       </c>
       <c r="D6">
-        <v>0.52805578186510582</v>
+        <v>-0.6320098239886767</v>
       </c>
       <c r="E6">
-        <v>-8.9257381023283848</v>
+        <v>2.118213289239979</v>
       </c>
       <c r="F6">
-        <v>3.746440923177996E-3</v>
+        <v>0.0002286927912880099</v>
       </c>
       <c r="G6">
-        <v>1.924098054372436E-3</v>
+        <v>0.0001174521002167417</v>
       </c>
       <c r="H6">
-        <v>0.46930727611113271</v>
+        <v>0.1159508884886643</v>
       </c>
       <c r="I6">
-        <v>0.46930727611113282</v>
+        <v>0.1159508884886642</v>
       </c>
       <c r="J6">
-        <v>0.46930727611113282</v>
+        <v>0.1159508884886643</v>
       </c>
       <c r="K6">
-        <v>1.000172277403498</v>
+        <v>1.000579971267382</v>
       </c>
       <c r="L6">
-        <v>0.225156845726213</v>
+        <v>-0.3172888359170663</v>
       </c>
       <c r="M6">
-        <v>0.99998211773858914</v>
+        <v>1.00060131338944</v>
       </c>
       <c r="N6">
-        <v>0.24984544810534659</v>
+        <v>-0.3238396541049574</v>
       </c>
       <c r="O6">
-        <v>46.930727611113277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>46.38035539546571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.38107931827487429</v>
+        <v>0.7540230463079087</v>
       </c>
       <c r="C7">
-        <v>-16.152978580685591</v>
+        <v>-1.466039595514017</v>
       </c>
       <c r="D7">
-        <v>0.39331308250944491</v>
+        <v>-0.7538958435003362</v>
       </c>
       <c r="E7">
-        <v>16.159261600341861</v>
+        <v>1.466104924363338</v>
       </c>
       <c r="F7">
-        <v>1.2233764234570619E-2</v>
+        <v>0.0001272028075725018</v>
       </c>
       <c r="G7">
-        <v>6.2830196562657648E-3</v>
+        <v>6.532884932131111e-05</v>
       </c>
       <c r="H7">
-        <v>0.84806257168271149</v>
+        <v>0.08647611924034598</v>
       </c>
       <c r="I7">
-        <v>0.84806257168271137</v>
+        <v>0.08647611924034598</v>
       </c>
       <c r="J7">
-        <v>0.84806257168271149</v>
+        <v>0.08647611924034598</v>
       </c>
       <c r="K7">
-        <v>0.99998211773858914</v>
+        <v>1.00060131338944</v>
       </c>
       <c r="L7">
-        <v>0.24984544810534659</v>
+        <v>-0.3238396541049574</v>
       </c>
       <c r="M7">
-        <v>1.000389001114897</v>
+        <v>1.000601265916897</v>
       </c>
       <c r="N7">
-        <v>0.2070184490989854</v>
+        <v>-0.3288094872374159</v>
       </c>
       <c r="O7">
-        <v>84.806257168271145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34.59044769613839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.3415130824963834</v>
+        <v>0.5244055376007085</v>
       </c>
       <c r="C8">
-        <v>-8.4348389077157258</v>
+        <v>-1.236633548161129</v>
       </c>
       <c r="D8">
-        <v>0.34484984132263369</v>
+        <v>-0.5243210922771067</v>
       </c>
       <c r="E8">
-        <v>8.4365526011376026</v>
+        <v>1.236676917611274</v>
       </c>
       <c r="F8">
-        <v>3.3367588262502861E-3</v>
+        <v>8.444532360185608e-05</v>
       </c>
       <c r="G8">
-        <v>1.7136934218768829E-3</v>
+        <v>4.336945014582483e-05</v>
       </c>
       <c r="H8">
-        <v>0.44290466248393368</v>
+        <v>0.0704588653814648</v>
       </c>
       <c r="I8">
-        <v>0.44290466248393368</v>
+        <v>0.0704588653814648</v>
       </c>
       <c r="J8">
-        <v>0.44290466248393368</v>
+        <v>0.0704588653814648</v>
       </c>
       <c r="K8">
-        <v>1.000389001114897</v>
+        <v>1.000601265916897</v>
       </c>
       <c r="L8">
-        <v>0.2070184490989854</v>
+        <v>-0.3288094872374159</v>
       </c>
       <c r="M8">
-        <v>1.000607987694502</v>
+        <v>1.000606452867703</v>
       </c>
       <c r="N8">
-        <v>0.18486515570689549</v>
+        <v>-0.3328478822558539</v>
       </c>
       <c r="O8">
-        <v>44.290466248393372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>28.18354615258592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.34484984133473512</v>
+        <v>0.3172488006329299</v>
       </c>
       <c r="C9">
-        <v>23.925601897990958</v>
+        <v>-1.02962526736456</v>
       </c>
       <c r="D9">
-        <v>0.37164681292881518</v>
+        <v>-0.3171944732063912</v>
       </c>
       <c r="E9">
-        <v>-23.911839502703131</v>
+        <v>1.029653168857696</v>
       </c>
       <c r="F9">
-        <v>2.6796971594080069E-2</v>
+        <v>5.432742653876943e-05</v>
       </c>
       <c r="G9">
-        <v>1.3762395287827189E-2</v>
+        <v>2.790149313613988e-05</v>
       </c>
       <c r="H9">
-        <v>1.255135753999906</v>
+        <v>0.05651417730327975</v>
       </c>
       <c r="I9">
-        <v>1.255135753999906</v>
+        <v>0.05651417730327975</v>
       </c>
       <c r="J9">
-        <v>1.255135753999906</v>
+        <v>0.05651417730327975</v>
       </c>
       <c r="K9">
-        <v>1.000607987694502</v>
+        <v>1.000606452867703</v>
       </c>
       <c r="L9">
-        <v>0.18486515570689549</v>
+        <v>-0.3328478822558539</v>
       </c>
       <c r="M9">
-        <v>1.000049327941533</v>
+        <v>1.000616361377519</v>
       </c>
       <c r="N9">
-        <v>0.24953486373695311</v>
+        <v>-0.3360458120600212</v>
       </c>
       <c r="O9">
-        <v>83.675716933327067</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>22.6056709213119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.22465477519883609</v>
+        <v>-0.2285196203473471</v>
       </c>
       <c r="C10">
-        <v>1.500336148386568</v>
+        <v>-0.484012714968903</v>
       </c>
       <c r="D10">
-        <v>0.22476261069310349</v>
+        <v>0.2285330285707181</v>
       </c>
       <c r="E10">
-        <v>-1.5002807662067961</v>
+        <v>0.4840196011675725</v>
       </c>
       <c r="F10">
-        <v>1.0783549426743309E-4</v>
+        <v>1.340822337103642e-05</v>
       </c>
       <c r="G10">
-        <v>5.5382179771967799E-5</v>
+        <v>6.886198669509014e-06</v>
       </c>
       <c r="H10">
-        <v>7.9621198372646057E-2</v>
+        <v>0.02807588542172858</v>
       </c>
       <c r="I10">
-        <v>7.9621198372646029E-2</v>
+        <v>0.02807588542172857</v>
       </c>
       <c r="J10">
-        <v>7.9621198372646057E-2</v>
+        <v>0.02807588542172858</v>
       </c>
       <c r="K10">
-        <v>1.000049327941533</v>
+        <v>1.000616361377519</v>
       </c>
       <c r="L10">
-        <v>0.24953486373695311</v>
+        <v>-0.3360458120600212</v>
       </c>
       <c r="M10">
-        <v>1.0000237520170789</v>
+        <v>1.00063870437566</v>
       </c>
       <c r="N10">
-        <v>0.25387250049292809</v>
+        <v>-0.3370289774514505</v>
       </c>
       <c r="O10">
-        <v>7.9621198372646056</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11.23035416869143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-8.503240854744791E-2</v>
+        <v>0.2548592975670074</v>
       </c>
       <c r="C11">
-        <v>-1.340273230414214</v>
+        <v>-0.2548219754694497</v>
       </c>
       <c r="D11">
-        <v>8.5400000000702386E-2</v>
+        <v>-0.2548328579389582</v>
       </c>
       <c r="E11">
-        <v>1.340311107538412</v>
+        <v>0.2548246998447486</v>
       </c>
       <c r="F11">
-        <v>3.6759145325447612E-4</v>
+        <v>2.643962804921296e-05</v>
       </c>
       <c r="G11">
-        <v>3.7877124198004708E-5</v>
+        <v>2.724375298968074e-06</v>
       </c>
       <c r="H11">
-        <v>7.0489680014674275E-2</v>
+        <v>0.01890473122050196</v>
       </c>
       <c r="I11">
-        <v>7.0489680014674289E-2</v>
+        <v>0.01890473122050195</v>
       </c>
       <c r="J11">
-        <v>7.0489680014674289E-2</v>
+        <v>0.01890473122050196</v>
       </c>
       <c r="K11">
-        <v>0.99996957877683101</v>
+        <v>1.000598529972923</v>
       </c>
       <c r="L11">
-        <v>0.23480096949241161</v>
+        <v>-0.2933083248813378</v>
       </c>
       <c r="M11">
-        <v>1.0000150924644979</v>
+        <v>1.000551969994761</v>
       </c>
       <c r="N11">
-        <v>0.21925270649320411</v>
+        <v>-0.2965867513021286</v>
       </c>
       <c r="O11">
-        <v>7.0489680014674292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>18.90473122050196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.5226417957816234</v>
+        <v>1.634943226514887</v>
       </c>
       <c r="C12">
-        <v>1.3351305623799941</v>
+        <v>-1.632212662641533</v>
       </c>
       <c r="D12">
-        <v>0.52313065451761698</v>
+        <v>-1.633675654040442</v>
       </c>
       <c r="E12">
-        <v>-1.3350801897097531</v>
+        <v>1.632343275036406</v>
       </c>
       <c r="F12">
-        <v>4.8885873599358032E-4</v>
+        <v>0.001267572474444867</v>
       </c>
       <c r="G12">
-        <v>5.0372670241216611E-5</v>
+        <v>0.0001306123948727755</v>
       </c>
       <c r="H12">
-        <v>7.525946590843359E-2</v>
+        <v>0.1211869461516459</v>
       </c>
       <c r="I12">
-        <v>7.525946590843359E-2</v>
+        <v>0.121186946151646</v>
       </c>
       <c r="J12">
-        <v>7.525946590843359E-2</v>
+        <v>0.121186946151646</v>
       </c>
       <c r="K12">
-        <v>0.99992721342075497</v>
+        <v>1.000566266053257</v>
       </c>
       <c r="L12">
-        <v>0.2482162913988625</v>
+        <v>-0.3093799700521505</v>
       </c>
       <c r="M12">
-        <v>1.0000188317337879</v>
+        <v>1.000217806012907</v>
       </c>
       <c r="N12">
-        <v>0.26713963597746537</v>
+        <v>-0.3338916515555381</v>
       </c>
       <c r="O12">
-        <v>7.5259465908433594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>48.4747784606584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.43003065451746042</v>
+        <v>1.214024980313835</v>
       </c>
       <c r="C13">
-        <v>5.9027903258261274</v>
+        <v>-1.212706804997027</v>
       </c>
       <c r="D13">
-        <v>0.43835886590338169</v>
+        <v>-1.213325172128583</v>
       </c>
       <c r="E13">
-        <v>-5.9019321755774801</v>
+        <v>1.212778914185946</v>
       </c>
       <c r="F13">
-        <v>8.3282113859212692E-3</v>
+        <v>0.0006998081852511717</v>
       </c>
       <c r="G13">
-        <v>8.5815024864732692E-4</v>
+        <v>7.210918891864537e-05</v>
       </c>
       <c r="H13">
-        <v>0.3106313696758376</v>
+        <v>0.09004486486193269</v>
       </c>
       <c r="I13">
-        <v>0.3106313696758376</v>
+        <v>0.09004486486193269</v>
       </c>
       <c r="J13">
-        <v>0.3106313696758376</v>
+        <v>0.09004486486193269</v>
       </c>
       <c r="K13">
-        <v>1.0000188317337879</v>
+        <v>1.000217806012907</v>
       </c>
       <c r="L13">
-        <v>0.26713963597746537</v>
+        <v>-0.3338916515555381</v>
       </c>
       <c r="M13">
-        <v>0.9999774616845849</v>
+        <v>0.999958967273145</v>
       </c>
       <c r="N13">
-        <v>0.34815813865238282</v>
+        <v>-0.3521134852694893</v>
       </c>
       <c r="O13">
-        <v>31.063136967583759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>36.01794594477307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.29135886590494031</v>
+        <v>0.9199363396549192</v>
       </c>
       <c r="C14">
-        <v>2.8265167574046068</v>
+        <v>-0.9194063141521771</v>
       </c>
       <c r="D14">
-        <v>0.29327871675914569</v>
+        <v>-0.9195340994682756</v>
       </c>
       <c r="E14">
-        <v>-2.8263189333567338</v>
+        <v>0.9194477615290735</v>
       </c>
       <c r="F14">
-        <v>1.9198508542054851E-3</v>
+        <v>0.0004022401866435876</v>
       </c>
       <c r="G14">
-        <v>1.9782404787305199E-4</v>
+        <v>4.144737689637523e-05</v>
       </c>
       <c r="H14">
-        <v>0.14914310739578759</v>
+        <v>0.06826721256901028</v>
       </c>
       <c r="I14">
-        <v>0.14914310739578759</v>
+        <v>0.06826721256901029</v>
       </c>
       <c r="J14">
-        <v>0.14914310739578759</v>
+        <v>0.06826721256901029</v>
       </c>
       <c r="K14">
-        <v>0.9999774616845849</v>
+        <v>0.999958967273145</v>
       </c>
       <c r="L14">
-        <v>0.34815813865238282</v>
+        <v>-0.3521134852694893</v>
       </c>
       <c r="M14">
-        <v>0.99997771868145136</v>
+        <v>0.9997627817902098</v>
       </c>
       <c r="N14">
-        <v>0.38707490488648572</v>
+        <v>-0.365933886489018</v>
       </c>
       <c r="O14">
-        <v>14.91431073957876</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27.30688502760412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.14697871675994731</v>
+        <v>0.3351446657911238</v>
       </c>
       <c r="C15">
-        <v>0.28779116349811529</v>
+        <v>-0.3350759414148195</v>
       </c>
       <c r="D15">
-        <v>0.14700000000106189</v>
+        <v>-0.3350988706571132</v>
       </c>
       <c r="E15">
-        <v>-0.2877889704439518</v>
+        <v>0.3350806602078252</v>
       </c>
       <c r="F15">
-        <v>2.1283241114639081E-5</v>
+        <v>4.579513401059554e-05</v>
       </c>
       <c r="G15">
-        <v>2.1930541635462042E-6</v>
+        <v>4.718793005675792e-06</v>
       </c>
       <c r="H15">
-        <v>1.6961400892330902E-2</v>
+        <v>0.02488012188742259</v>
       </c>
       <c r="I15">
-        <v>1.6961400892330902E-2</v>
+        <v>0.02488012188742258</v>
       </c>
       <c r="J15">
-        <v>1.6961400892330902E-2</v>
+        <v>0.02488012188742259</v>
       </c>
       <c r="K15">
-        <v>0.99997771868145136</v>
+        <v>0.9997627817902098</v>
       </c>
       <c r="L15">
-        <v>0.38707490488648572</v>
+        <v>-0.365933886489018</v>
       </c>
       <c r="M15">
-        <v>1.0000016320111369</v>
+        <v>0.9997015036504466</v>
       </c>
       <c r="N15">
-        <v>0.39061235449508208</v>
+        <v>-0.3702521226481452</v>
       </c>
       <c r="O15">
-        <v>1.69614008923309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.952048754969036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.3536418993156579E-5</v>
+        <v>-0.4999215977523443</v>
       </c>
       <c r="C16">
-        <v>0.33982753672592381</v>
+        <v>-0.2742822511688791</v>
       </c>
       <c r="D16">
-        <v>-8.270658463649383E-13</v>
+        <v>0.4999877847180357</v>
       </c>
       <c r="E16">
-        <v>-0.33982511150132688</v>
+        <v>0.2742890711640057</v>
       </c>
       <c r="F16">
-        <v>2.353641816609073E-5</v>
+        <v>6.618696569138383e-05</v>
       </c>
       <c r="G16">
-        <v>2.4252245968692239E-6</v>
+        <v>6.819995126583489e-06</v>
       </c>
       <c r="H16">
-        <v>1.783663898465351E-2</v>
+        <v>0.0299108718588571</v>
       </c>
       <c r="I16">
-        <v>1.783663898465352E-2</v>
+        <v>0.0299108718588571</v>
       </c>
       <c r="J16">
-        <v>1.783663898465352E-2</v>
+        <v>0.0299108718588571</v>
       </c>
       <c r="K16">
-        <v>0.99998211773858914</v>
+        <v>1.00060131338944</v>
       </c>
       <c r="L16">
-        <v>0.24984544810534659</v>
+        <v>-0.3238396541049574</v>
       </c>
       <c r="M16">
-        <v>0.99997497883426045</v>
+        <v>1.000708894503957</v>
       </c>
       <c r="N16">
-        <v>0.25381374754513858</v>
+        <v>-0.3264375247688985</v>
       </c>
       <c r="O16">
-        <v>1.7836638984653519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11.96434874354284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.9622915733612966E-6</v>
+        <v>0.2518579092688487</v>
       </c>
       <c r="C17">
-        <v>-0.1976680923250608</v>
+        <v>-0.2518063096084017</v>
       </c>
       <c r="D17">
-        <v>-1.415013180412761E-12</v>
+        <v>-0.2518320911432617</v>
       </c>
       <c r="E17">
-        <v>0.19766891277028761</v>
+        <v>0.2518089699432402</v>
       </c>
       <c r="F17">
-        <v>7.9622901583481162E-6</v>
+        <v>2.581812558699603e-05</v>
       </c>
       <c r="G17">
-        <v>8.2044522675683851E-7</v>
+        <v>2.66033483847794e-06</v>
       </c>
       <c r="H17">
-        <v>1.0374372472348559E-2</v>
+        <v>0.01868121810990095</v>
       </c>
       <c r="I17">
-        <v>1.0374372472348559E-2</v>
+        <v>0.01868121810990096</v>
       </c>
       <c r="J17">
-        <v>1.0374372472348559E-2</v>
+        <v>0.01868121810990096</v>
       </c>
       <c r="K17">
-        <v>1.000049327941533</v>
+        <v>1.000616361377519</v>
       </c>
       <c r="L17">
-        <v>0.24953486373695311</v>
+        <v>-0.3360458120600212</v>
       </c>
       <c r="M17">
-        <v>1.0000534779553989</v>
+        <v>1.000570350211631</v>
       </c>
       <c r="N17">
-        <v>0.24722692614460121</v>
+        <v>-0.3392853407102217</v>
       </c>
       <c r="O17">
-        <v>1.0374372472348561</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.472487243960383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1183626106985856</v>
+        <v>0.2714518392392419</v>
       </c>
       <c r="C18">
-        <v>6.1206527064226401</v>
+        <v>-0.2713948552867267</v>
       </c>
       <c r="D18">
-        <v>0.1260000000011752</v>
+        <v>-0.2714218491669969</v>
       </c>
       <c r="E18">
-        <v>-6.1198657394227256</v>
+        <v>0.2713979455046333</v>
       </c>
       <c r="F18">
-        <v>7.6373893025895867E-3</v>
+        <v>2.999007224507855e-05</v>
       </c>
       <c r="G18">
-        <v>7.8696699991365193E-4</v>
+        <v>3.090217906565051e-06</v>
       </c>
       <c r="H18">
-        <v>0.32130338487740662</v>
+        <v>0.020134070848595</v>
       </c>
       <c r="I18">
-        <v>0.32130338487740667</v>
+        <v>0.02013407084859501</v>
       </c>
       <c r="J18">
-        <v>0.32130338487740667</v>
+        <v>0.02013407084859501</v>
       </c>
       <c r="K18">
-        <v>1.0000237520170789</v>
+        <v>1.00063870437566</v>
       </c>
       <c r="L18">
-        <v>0.25387250049292809</v>
+        <v>-0.3370289774514505</v>
       </c>
       <c r="M18">
-        <v>0.99992012441740563</v>
+        <v>1.000589114866041</v>
       </c>
       <c r="N18">
-        <v>0.32548965992173262</v>
+        <v>-0.3405203740984546</v>
       </c>
       <c r="O18">
-        <v>32.130338487740673</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.053628339438003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-4.7105406797332003</v>
+        <v>6.533179700230165</v>
       </c>
       <c r="C19">
-        <v>19.884260301002531</v>
+        <v>0.01031469045637617</v>
       </c>
       <c r="D19">
-        <v>4.8930184562815739</v>
+        <v>-6.514535814355661</v>
       </c>
       <c r="E19">
-        <v>-19.827524671951039</v>
+        <v>-0.004517970367703197</v>
       </c>
       <c r="F19">
-        <v>0.1824777765483736</v>
+        <v>0.01864388587450438</v>
       </c>
       <c r="G19">
-        <v>5.6735629051498648E-2</v>
+        <v>0.00579672008867297</v>
       </c>
       <c r="H19">
-        <v>1.071895368529626</v>
+        <v>0.342622296775529</v>
       </c>
       <c r="I19">
-        <v>1.071895368529626</v>
+        <v>0.342622296775529</v>
       </c>
       <c r="J19">
-        <v>1.071895368529626</v>
+        <v>0.342622296775529</v>
       </c>
       <c r="K19">
-        <v>1.000599999999999</v>
+        <v>1.00082054181485</v>
       </c>
       <c r="L19">
-        <v>0.1325555460840509</v>
+        <v>-0.2388493521489393</v>
       </c>
       <c r="M19">
-        <v>1.0000000000000231</v>
+        <v>0.9979634733134436</v>
       </c>
       <c r="N19">
-        <v>0.66741729554089968</v>
+        <v>-0.2895729402305681</v>
       </c>
       <c r="O19">
-        <v>71.459691235308398</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>68.5244593551058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-3.2636275816123939</v>
+        <v>4.676656025862326</v>
       </c>
       <c r="C20">
-        <v>12.31325444343981</v>
+        <v>0.003105243433004053</v>
       </c>
       <c r="D20">
-        <v>3.3346229654880908</v>
+        <v>-4.667047863735067</v>
       </c>
       <c r="E20">
-        <v>-12.29118069922761</v>
+        <v>-0.000117892684709877</v>
       </c>
       <c r="F20">
-        <v>7.0995383875696927E-2</v>
+        <v>0.009608162127259234</v>
       </c>
       <c r="G20">
-        <v>2.207374421220187E-2</v>
+        <v>0.002987350748294176</v>
       </c>
       <c r="H20">
-        <v>0.66859397715051194</v>
+        <v>0.2459617449886348</v>
       </c>
       <c r="I20">
-        <v>0.66859397715051194</v>
+        <v>0.2459617449886348</v>
       </c>
       <c r="J20">
-        <v>0.66859397715051194</v>
+        <v>0.2459617449886348</v>
       </c>
       <c r="K20">
-        <v>1.0000000000000231</v>
+        <v>0.9979634733134436</v>
       </c>
       <c r="L20">
-        <v>0.66741729554089968</v>
+        <v>-0.2895729402305681</v>
       </c>
       <c r="M20">
-        <v>0.99976990072352812</v>
+        <v>0.995912944042469</v>
       </c>
       <c r="N20">
-        <v>1.001602928841177</v>
+        <v>-0.3261693151916487</v>
       </c>
       <c r="O20">
-        <v>66.859397715051188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>49.19234899772695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-1.629390874639534</v>
+        <v>1.837906536390672</v>
       </c>
       <c r="C21">
-        <v>6.9037663217563088</v>
+        <v>0.001421555558592729</v>
       </c>
       <c r="D21">
-        <v>1.651405559765891</v>
+        <v>-1.836422596261423</v>
       </c>
       <c r="E21">
-        <v>-6.8969215594370832</v>
+        <v>-0.0009601718312137325</v>
       </c>
       <c r="F21">
-        <v>2.2014685126356511E-2</v>
+        <v>0.001483940129249017</v>
       </c>
       <c r="G21">
-        <v>6.8447623192255946E-3</v>
+        <v>0.0004613837273789965</v>
       </c>
       <c r="H21">
-        <v>0.37230909300964771</v>
+        <v>0.09666195929015851</v>
       </c>
       <c r="I21">
-        <v>0.3723090930096476</v>
+        <v>0.09666195929015854</v>
       </c>
       <c r="J21">
-        <v>0.37230909300964771</v>
+        <v>0.09666195929015854</v>
       </c>
       <c r="K21">
-        <v>1.0000000000000231</v>
+        <v>0.9979634733134436</v>
       </c>
       <c r="L21">
-        <v>0.66741729554089968</v>
+        <v>-0.2895729402305681</v>
       </c>
       <c r="M21">
-        <v>0.9997790088075561</v>
+        <v>0.9971575478141583</v>
       </c>
       <c r="N21">
-        <v>0.85322256770416904</v>
+        <v>-0.3039321440891948</v>
       </c>
       <c r="O21">
-        <v>37.230909300964768</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>19.33239185803171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.665377034511397</v>
+        <v>-2.832917167193359</v>
       </c>
       <c r="C22">
-        <v>-5.3986217428368963</v>
+        <v>0.0001292328814282533</v>
       </c>
       <c r="D22">
-        <v>-1.6514055597656909</v>
+        <v>2.836457332697461</v>
       </c>
       <c r="E22">
-        <v>5.4029657261069071</v>
+        <v>0.0009714683689969038</v>
       </c>
       <c r="F22">
-        <v>1.397147474570626E-2</v>
+        <v>0.003540165504101633</v>
       </c>
       <c r="G22">
-        <v>4.3439832700107317E-3</v>
+        <v>0.001100701250425157</v>
       </c>
       <c r="H22">
-        <v>0.29659821239377299</v>
+        <v>0.1492997866527563</v>
       </c>
       <c r="I22">
-        <v>0.29659821239377299</v>
+        <v>0.1492997866527563</v>
       </c>
       <c r="J22">
-        <v>0.29659821239377299</v>
+        <v>0.1492997866527563</v>
       </c>
       <c r="K22">
-        <v>0.99976990072352812</v>
+        <v>0.995912944042469</v>
       </c>
       <c r="L22">
-        <v>1.001602928841177</v>
+        <v>-0.3261693151916487</v>
       </c>
       <c r="M22">
-        <v>0.9997790088075561</v>
+        <v>0.9971575478141583</v>
       </c>
       <c r="N22">
-        <v>0.85322256770416904</v>
+        <v>-0.3039321440891948</v>
       </c>
       <c r="O22">
-        <v>29.659821239377301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29.85995733055126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-5.2698464270703189</v>
+        <v>4.509274982426</v>
       </c>
       <c r="C23">
-        <v>17.651823349773359</v>
+        <v>-5.464724997138758</v>
       </c>
       <c r="D23">
-        <v>5.3111676701324404</v>
+        <v>-4.5031655687621</v>
       </c>
       <c r="E23">
-        <v>-17.627897871026601</v>
+        <v>5.468262418473131</v>
       </c>
       <c r="F23">
-        <v>4.1321243062121482E-2</v>
+        <v>0.006109413663899943</v>
       </c>
       <c r="G23">
-        <v>2.3925478746765091E-2</v>
+        <v>0.003537421334373292</v>
       </c>
       <c r="H23">
-        <v>0.96630745492437853</v>
+        <v>0.3715595319058572</v>
       </c>
       <c r="I23">
-        <v>0.96630745492437853</v>
+        <v>0.371559531905857</v>
       </c>
       <c r="J23">
-        <v>0.96630745492437853</v>
+        <v>0.3715595319058572</v>
       </c>
       <c r="K23">
-        <v>1.000599999999999</v>
+        <v>1.00082054181485</v>
       </c>
       <c r="L23">
-        <v>0.1325555460840509</v>
+        <v>-0.2388493521489393</v>
       </c>
       <c r="M23">
-        <v>1.0000000000000031</v>
+        <v>1.000657175473806</v>
       </c>
       <c r="N23">
-        <v>0.27707775882404329</v>
+        <v>-0.2951734991781508</v>
       </c>
       <c r="O23">
-        <v>64.420496994958569</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74.31190638117144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-5.3111676701077206</v>
+        <v>4.503167115006434</v>
       </c>
       <c r="C24">
-        <v>13.44376810517222</v>
+        <v>-5.468261539328833</v>
       </c>
       <c r="D24">
-        <v>5.3366397704049602</v>
+        <v>-4.49705770081765</v>
       </c>
       <c r="E24">
-        <v>-13.429019463816459</v>
+        <v>5.471798960967122</v>
       </c>
       <c r="F24">
-        <v>2.547210029723956E-2</v>
+        <v>0.006109414188784079</v>
       </c>
       <c r="G24">
-        <v>1.474864135575338E-2</v>
+        <v>0.003537421638289295</v>
       </c>
       <c r="H24">
-        <v>0.75868416409068995</v>
+        <v>0.3715595478669759</v>
       </c>
       <c r="I24">
-        <v>0.75868416409068995</v>
+        <v>0.371559547866976</v>
       </c>
       <c r="J24">
-        <v>0.75868416409068995</v>
+        <v>0.371559547866976</v>
       </c>
       <c r="K24">
-        <v>1.0000000000000031</v>
+        <v>1.000657175473806</v>
       </c>
       <c r="L24">
-        <v>0.27707775882404329</v>
+        <v>-0.2951734991781508</v>
       </c>
       <c r="M24">
-        <v>0.99970055569931993</v>
+        <v>1.000494776203906</v>
       </c>
       <c r="N24">
-        <v>0.3924955415515699</v>
+        <v>-0.3515159857222125</v>
       </c>
       <c r="O24">
-        <v>75.868416409068999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74.31190957339521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-4.9366397703857929</v>
+        <v>3.897192959971116</v>
       </c>
       <c r="C25">
-        <v>9.6305967999219302</v>
+        <v>-4.871933951480213</v>
       </c>
       <c r="D25">
-        <v>4.9509261723511173</v>
+        <v>-3.892452480502431</v>
       </c>
       <c r="E25">
-        <v>-9.6223248075698287</v>
+        <v>4.874678744046279</v>
       </c>
       <c r="F25">
-        <v>1.428640196532438E-2</v>
+        <v>0.004740479468684722</v>
       </c>
       <c r="G25">
-        <v>8.2719923521015204E-3</v>
+        <v>0.002744792566065968</v>
       </c>
       <c r="H25">
-        <v>0.56818540503431769</v>
+        <v>0.3272953054889573</v>
       </c>
       <c r="I25">
-        <v>0.5681854050343178</v>
+        <v>0.3272953054889572</v>
       </c>
       <c r="J25">
-        <v>0.5681854050343178</v>
+        <v>0.3272953054889573</v>
       </c>
       <c r="K25">
-        <v>0.99970055569931993</v>
+        <v>1.000494776203906</v>
       </c>
       <c r="L25">
-        <v>0.3924955415515699</v>
+        <v>-0.3515159857222125</v>
       </c>
       <c r="M25">
-        <v>0.99962372098680718</v>
+        <v>1.000364009045022</v>
       </c>
       <c r="N25">
-        <v>0.47978845225506789</v>
+        <v>-0.4012646286587875</v>
       </c>
       <c r="O25">
-        <v>56.818540503431777</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>65.45906109779146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-3.5408436568221888</v>
+        <v>3.192292941785718</v>
       </c>
       <c r="C26">
-        <v>-3.434671786517359</v>
+        <v>-3.676383650049796</v>
       </c>
       <c r="D26">
-        <v>3.5438124927700301</v>
+        <v>-3.189405003001074</v>
       </c>
       <c r="E26">
-        <v>3.436390776947194</v>
+        <v>3.678055800084346</v>
       </c>
       <c r="F26">
-        <v>2.9688359478412529E-3</v>
+        <v>0.00288793878464455</v>
       </c>
       <c r="G26">
-        <v>1.718990429834921E-3</v>
+        <v>0.001672150034550235</v>
       </c>
       <c r="H26">
-        <v>0.25901310677185252</v>
+        <v>0.2554598382072717</v>
       </c>
       <c r="I26">
-        <v>0.25901310677185252</v>
+        <v>0.2554598382072718</v>
       </c>
       <c r="J26">
-        <v>0.25901310677185252</v>
+        <v>0.2554598382072718</v>
       </c>
       <c r="K26">
-        <v>0.99962372098680718</v>
+        <v>1.000364009045022</v>
       </c>
       <c r="L26">
-        <v>0.47978845225506789</v>
+        <v>-0.4012646286587875</v>
       </c>
       <c r="M26">
-        <v>1.000298092425485</v>
+        <v>1.000234617364404</v>
       </c>
       <c r="N26">
-        <v>0.47011725749623468</v>
+        <v>-0.4398312948719569</v>
       </c>
       <c r="O26">
-        <v>25.901310677185251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>51.09196764145436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-3.143812492764845</v>
+        <v>2.890105214878641</v>
       </c>
       <c r="C27">
-        <v>5.9885010385105781</v>
+        <v>-3.378762654311816</v>
       </c>
       <c r="D27">
-        <v>3.149385986341704</v>
+        <v>-2.887696355572614</v>
       </c>
       <c r="E27">
-        <v>-5.9852739211192176</v>
+        <v>3.380157411774549</v>
       </c>
       <c r="F27">
-        <v>5.5734935768585459E-3</v>
+        <v>0.002408859306026745</v>
       </c>
       <c r="G27">
-        <v>3.2271173913605011E-3</v>
+        <v>0.001394757462732876</v>
       </c>
       <c r="H27">
-        <v>0.3548888817422533</v>
+        <v>0.2333105398682645</v>
       </c>
       <c r="I27">
-        <v>0.35488888174225319</v>
+        <v>0.2333105398682645</v>
       </c>
       <c r="J27">
-        <v>0.3548888817422533</v>
+        <v>0.2333105398682645</v>
       </c>
       <c r="K27">
-        <v>1.000298092425485</v>
+        <v>1.000234617364404</v>
       </c>
       <c r="L27">
-        <v>0.47011725749623468</v>
+        <v>-0.4398312948719569</v>
       </c>
       <c r="M27">
-        <v>1.000259107248878</v>
+        <v>1.000120999489424</v>
       </c>
       <c r="N27">
-        <v>0.5246304239162296</v>
+        <v>-0.4751075138340532</v>
       </c>
       <c r="O27">
-        <v>35.48888817422533</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>46.66210797365291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-2.0333146667742001</v>
+        <v>1.693857441577991</v>
       </c>
       <c r="C28">
-        <v>2.7585645962387222</v>
+        <v>-2.18842764349049</v>
       </c>
       <c r="D28">
-        <v>2.0347456312451651</v>
+        <v>-1.692924042721404</v>
       </c>
       <c r="E28">
-        <v>-2.7577360512216722</v>
+        <v>2.188968092248818</v>
       </c>
       <c r="F28">
-        <v>1.4309644709644691E-3</v>
+        <v>0.0009333988565867202</v>
       </c>
       <c r="G28">
-        <v>8.285450170499864E-4</v>
+        <v>0.0005404487583282602</v>
       </c>
       <c r="H28">
-        <v>0.1798221006006275</v>
+        <v>0.1452319850530311</v>
       </c>
       <c r="I28">
-        <v>0.1798221006006275</v>
+        <v>0.1452319850530311</v>
       </c>
       <c r="J28">
-        <v>0.1798221006006275</v>
+        <v>0.1452319850530311</v>
       </c>
       <c r="K28">
-        <v>1.000259107248878</v>
+        <v>1.000120999489424</v>
       </c>
       <c r="L28">
-        <v>0.5246304239162296</v>
+        <v>-0.4751075138340532</v>
       </c>
       <c r="M28">
-        <v>1.000312369854599</v>
+        <v>1.000069057827454</v>
       </c>
       <c r="N28">
-        <v>0.55210633774507234</v>
+        <v>-0.4972397133857588</v>
       </c>
       <c r="O28">
-        <v>17.982210060062759</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29.04639701060623</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.634745631242704</v>
+        <v>1.294219256859313</v>
       </c>
       <c r="C29">
-        <v>-1.284166024038407</v>
+        <v>-1.790277323481153</v>
       </c>
       <c r="D29">
-        <v>1.635272129435632</v>
+        <v>-1.293624410906479</v>
       </c>
       <c r="E29">
-        <v>1.2844708725955081</v>
+        <v>1.790621746183557</v>
       </c>
       <c r="F29">
-        <v>5.2649819292760469E-4</v>
+        <v>0.0005948459528342109</v>
       </c>
       <c r="G29">
-        <v>3.048485571008896E-4</v>
+        <v>0.0003444227024038682</v>
       </c>
       <c r="H29">
-        <v>0.10907546763434491</v>
+        <v>0.1159393594691178</v>
       </c>
       <c r="I29">
-        <v>0.10907546763434491</v>
+        <v>0.1159393594691178</v>
       </c>
       <c r="J29">
-        <v>0.10907546763434491</v>
+        <v>0.1159393594691178</v>
       </c>
       <c r="K29">
-        <v>1.000312369854599</v>
+        <v>1.000069057827454</v>
       </c>
       <c r="L29">
-        <v>0.55210633774507234</v>
+        <v>-0.4972397133857588</v>
       </c>
       <c r="M29">
-        <v>1.0006022156561729</v>
+        <v>1.00003770072859</v>
       </c>
       <c r="N29">
-        <v>0.54975019378621004</v>
+        <v>-0.514976928361789</v>
       </c>
       <c r="O29">
-        <v>10.907546763434491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23.18787189382355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-1.2352721294341731</v>
+        <v>0.8951322209110935</v>
       </c>
       <c r="C30">
-        <v>17.111286258633889</v>
+        <v>-1.392146616607697</v>
       </c>
       <c r="D30">
-        <v>1.2711094820491939</v>
+        <v>-0.8947982963851223</v>
       </c>
       <c r="E30">
-        <v>-17.090536016027631</v>
+        <v>1.392339962779232</v>
       </c>
       <c r="F30">
-        <v>3.5837352615021738E-2</v>
+        <v>0.000333924525971141</v>
       </c>
       <c r="G30">
-        <v>2.075024260625824E-2</v>
+        <v>0.0001933461715351026</v>
       </c>
       <c r="H30">
-        <v>0.89990486790007818</v>
+        <v>0.0868665953693893</v>
       </c>
       <c r="I30">
-        <v>0.89990486790007818</v>
+        <v>0.08686659536938929</v>
       </c>
       <c r="J30">
-        <v>0.89990486790007818</v>
+        <v>0.0868665953693893</v>
       </c>
       <c r="K30">
-        <v>1.0006022156561729</v>
+        <v>1.00003770072859</v>
       </c>
       <c r="L30">
-        <v>0.54975019378621004</v>
+        <v>-0.514976928361789</v>
       </c>
       <c r="M30">
-        <v>0.99954797197667267</v>
+        <v>1.000026870643594</v>
       </c>
       <c r="N30">
-        <v>0.67424768834171234</v>
+        <v>-0.5283202439965178</v>
       </c>
       <c r="O30">
-        <v>89.990486790007822</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>17.37331907387786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.37556585950717319</v>
+        <v>0.9965104116087945</v>
       </c>
       <c r="C31">
-        <v>-6.0994742917773506</v>
+        <v>-0.9959806686566741</v>
       </c>
       <c r="D31">
-        <v>0.38012262881880732</v>
+        <v>-0.9962684337885487</v>
       </c>
       <c r="E31">
-        <v>6.1021127140328364</v>
+        <v>0.9961207766197084</v>
       </c>
       <c r="F31">
-        <v>4.556769311634068E-3</v>
+        <v>0.00024197782024582</v>
       </c>
       <c r="G31">
-        <v>2.6384222554849401E-3</v>
+        <v>0.0001401079630343194</v>
       </c>
       <c r="H31">
-        <v>0.32089072357430171</v>
+        <v>0.07394629538201945</v>
       </c>
       <c r="I31">
-        <v>0.3208907235743016</v>
+        <v>0.07394629538201945</v>
       </c>
       <c r="J31">
-        <v>0.32089072357430171</v>
+        <v>0.07394629538201945</v>
       </c>
       <c r="K31">
-        <v>0.99954797197667267</v>
+        <v>1.000026870643594</v>
       </c>
       <c r="L31">
-        <v>0.67424768834171234</v>
+        <v>-0.5283202439965178</v>
       </c>
       <c r="M31">
-        <v>1.0000247718324839</v>
+        <v>0.9999757097909894</v>
       </c>
       <c r="N31">
-        <v>0.63314495914013091</v>
+        <v>-0.5393072289565728</v>
       </c>
       <c r="O31">
-        <v>32.089072357430162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14.78925907640389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-1.0100825155109081</v>
+        <v>0.7005208359640448</v>
       </c>
       <c r="C32">
-        <v>4.0534157613811361</v>
+        <v>-1.198659175124953</v>
       </c>
       <c r="D32">
-        <v>1.0158009017705401</v>
+        <v>-0.6998901381585643</v>
       </c>
       <c r="E32">
-        <v>-4.0520258908659983</v>
+        <v>1.198812468072298</v>
       </c>
       <c r="F32">
-        <v>5.7183862596323909E-3</v>
+        <v>0.000630697805480529</v>
       </c>
       <c r="G32">
-        <v>1.389870515137837E-3</v>
+        <v>0.0001532929473453404</v>
       </c>
       <c r="H32">
-        <v>0.2193377580329223</v>
+        <v>0.07284291489771541</v>
       </c>
       <c r="I32">
-        <v>0.2193377580329223</v>
+        <v>0.07284291489771542</v>
       </c>
       <c r="J32">
-        <v>0.2193377580329223</v>
+        <v>0.07284291489771542</v>
       </c>
       <c r="K32">
-        <v>0.99962372098680718</v>
+        <v>1.000364009045022</v>
       </c>
       <c r="L32">
-        <v>0.47978845225506789</v>
+        <v>-0.4012646286587875</v>
       </c>
       <c r="M32">
-        <v>0.99963286539313834</v>
+        <v>1.000230172644269</v>
       </c>
       <c r="N32">
-        <v>0.56050174195018465</v>
+        <v>-0.4269321340013721</v>
       </c>
       <c r="O32">
-        <v>21.933775803292232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14.56858297954308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.36444001323574959</v>
+        <v>0.3001169491239237</v>
       </c>
       <c r="C33">
-        <v>2.2576364212476712</v>
+        <v>-0.7992292653971242</v>
       </c>
       <c r="D33">
-        <v>0.36615372983303862</v>
+        <v>-0.2998784037876209</v>
       </c>
       <c r="E33">
-        <v>-2.2572198974135449</v>
+        <v>0.7992872445392105</v>
       </c>
       <c r="F33">
-        <v>1.7137165972889721E-3</v>
+        <v>0.0002385453363027978</v>
       </c>
       <c r="G33">
-        <v>4.1652383412538191E-4</v>
+        <v>5.797914208627297e-05</v>
       </c>
       <c r="H33">
-        <v>0.120073220151263</v>
+        <v>0.04479836062609727</v>
       </c>
       <c r="I33">
-        <v>0.120073220151263</v>
+        <v>0.04479836062609727</v>
       </c>
       <c r="J33">
-        <v>0.120073220151263</v>
+        <v>0.04479836062609727</v>
       </c>
       <c r="K33">
-        <v>0.99963286539313834</v>
+        <v>1.000230172644269</v>
       </c>
       <c r="L33">
-        <v>0.56050174195018465</v>
+        <v>-0.4269321340013721</v>
       </c>
       <c r="M33">
-        <v>0.99957279520592912</v>
+        <v>1.000195557277598</v>
       </c>
       <c r="N33">
-        <v>0.60455474535370923</v>
+        <v>-0.4432882713615922</v>
       </c>
       <c r="O33">
-        <v>12.0073220151263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.959672125219456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.39942235108820368</v>
+        <v>0.3999332926294056</v>
       </c>
       <c r="C34">
-        <v>0.99737337238439217</v>
+        <v>-0.3997444994479147</v>
       </c>
       <c r="D34">
-        <v>0.40000000000039693</v>
+        <v>-0.3997734813458418</v>
       </c>
       <c r="E34">
-        <v>-0.99727761791850911</v>
+        <v>0.3997709907019908</v>
       </c>
       <c r="F34">
-        <v>5.7764891219314052E-4</v>
+        <v>0.0001598112835637933</v>
       </c>
       <c r="G34">
-        <v>9.5754465883057804E-5</v>
+        <v>2.649125407611086e-05</v>
       </c>
       <c r="H34">
-        <v>5.6414413317392532E-2</v>
+        <v>0.02967302455460987</v>
       </c>
       <c r="I34">
-        <v>5.6414413317392532E-2</v>
+        <v>0.02967302455460987</v>
       </c>
       <c r="J34">
-        <v>5.6414413317392532E-2</v>
+        <v>0.02967302455460987</v>
       </c>
       <c r="K34">
-        <v>0.99957279520592912</v>
+        <v>1.000195557277598</v>
       </c>
       <c r="L34">
-        <v>0.60455474535370923</v>
+        <v>-0.4432882713615922</v>
       </c>
       <c r="M34">
-        <v>0.99969003468675455</v>
+        <v>1.000028779626601</v>
       </c>
       <c r="N34">
-        <v>0.63504716051009991</v>
+        <v>-0.4566365539187149</v>
       </c>
       <c r="O34">
-        <v>5.6414413317392533</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.934604910921975</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.3268621252801292E-2</v>
+        <v>0.3999437062859484</v>
       </c>
       <c r="C35">
-        <v>-8.1534163980078773</v>
+        <v>-0.3997549034011703</v>
       </c>
       <c r="D35">
-        <v>5.0950216268219606E-13</v>
+        <v>-0.3997838866817023</v>
       </c>
       <c r="E35">
-        <v>8.158931199458257</v>
+        <v>0.3997813960345314</v>
       </c>
       <c r="F35">
-        <v>3.3268621253310787E-2</v>
+        <v>0.0001598196042460476</v>
       </c>
       <c r="G35">
-        <v>5.5148014503796361E-3</v>
+        <v>2.649263336113039e-05</v>
       </c>
       <c r="H35">
-        <v>0.42812983901081308</v>
+        <v>0.02967379701757731</v>
       </c>
       <c r="I35">
-        <v>0.42812983901081308</v>
+        <v>0.02967379701757731</v>
       </c>
       <c r="J35">
-        <v>0.42812983901081308</v>
+        <v>0.02967379701757731</v>
       </c>
       <c r="K35">
-        <v>0.99957279520592912</v>
+        <v>1.000195557277598</v>
       </c>
       <c r="L35">
-        <v>0.60455474535370923</v>
+        <v>-0.4432882713615922</v>
       </c>
       <c r="M35">
-        <v>1.0002405589665671</v>
+        <v>1.000028775284273</v>
       </c>
       <c r="N35">
-        <v>0.37077041293011043</v>
+        <v>-0.4566369014086016</v>
       </c>
       <c r="O35">
-        <v>42.812983901081317</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.934759403515462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.65136088852656326</v>
+        <v>0.3999997949559278</v>
       </c>
       <c r="C36">
-        <v>-9.8377299184794325</v>
+        <v>-0.399811925303415</v>
       </c>
       <c r="D36">
-        <v>0.69999999999953322</v>
+        <v>-0.3998399412031454</v>
       </c>
       <c r="E36">
-        <v>9.8457926223845327</v>
+        <v>0.3998384235974375</v>
       </c>
       <c r="F36">
-        <v>4.8639111472969947E-2</v>
+        <v>0.0001598537527824351</v>
       </c>
       <c r="G36">
-        <v>8.0627039051002214E-3</v>
+        <v>2.649829402245896e-05</v>
       </c>
       <c r="H36">
-        <v>0.51766751475703265</v>
+        <v>0.029676967037356</v>
       </c>
       <c r="I36">
-        <v>0.51766751475703243</v>
+        <v>0.029676967037356</v>
       </c>
       <c r="J36">
-        <v>0.51766751475703265</v>
+        <v>0.029676967037356</v>
       </c>
       <c r="K36">
-        <v>0.99963286539313834</v>
+        <v>1.000230172644269</v>
       </c>
       <c r="L36">
-        <v>0.56050174195018465</v>
+        <v>-0.4269321340013721</v>
       </c>
       <c r="M36">
-        <v>1.0007861970097121</v>
+        <v>1.00006337311547</v>
       </c>
       <c r="N36">
-        <v>0.28187572511477671</v>
+        <v>-0.44028173968584</v>
       </c>
       <c r="O36">
-        <v>51.766751475703273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.935393407471199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.71607131955869308</v>
+        <v>1.194910860891425</v>
       </c>
       <c r="C37">
-        <v>1.065974707273118</v>
+        <v>-1.192812424461103</v>
       </c>
       <c r="D37">
-        <v>0.71661101847595854</v>
+        <v>-1.193977663966542</v>
       </c>
       <c r="E37">
-        <v>-1.0658435318718591</v>
+        <v>1.193039240704677</v>
       </c>
       <c r="F37">
-        <v>5.3969891726546315E-4</v>
+        <v>0.0009331969248833616</v>
       </c>
       <c r="G37">
-        <v>1.3117540125850979E-4</v>
+        <v>0.0002268162435736798</v>
       </c>
       <c r="H37">
-        <v>6.7383323838707307E-2</v>
+        <v>0.08860603560504797</v>
       </c>
       <c r="I37">
-        <v>6.7383323838707307E-2</v>
+        <v>0.08860603560504797</v>
       </c>
       <c r="J37">
-        <v>6.7383323838707307E-2</v>
+        <v>0.08860603560504797</v>
       </c>
       <c r="K37">
-        <v>1.000259107248878</v>
+        <v>1.000120999489424</v>
       </c>
       <c r="L37">
-        <v>0.5246304239162296</v>
+        <v>-0.4751075138340532</v>
       </c>
       <c r="M37">
-        <v>1.0004087882437109</v>
+        <v>0.9998248162556539</v>
       </c>
       <c r="N37">
-        <v>0.54787923033988928</v>
+        <v>-0.5029365004218924</v>
       </c>
       <c r="O37">
-        <v>6.7383323838707314</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>17.72120712100959</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>9.7268337145446013E-3</v>
+        <v>0.7969284248674735</v>
       </c>
       <c r="C38">
-        <v>-0.87864254171370459</v>
+        <v>-0.7962000068169153</v>
       </c>
       <c r="D38">
-        <v>-9.4742166176729758E-3</v>
+        <v>-0.7965127402917601</v>
       </c>
       <c r="E38">
-        <v>0.87870394103837768</v>
+        <v>0.7963010401695343</v>
       </c>
       <c r="F38">
-        <v>2.5261709687162542E-4</v>
+        <v>0.0004156845757133931</v>
       </c>
       <c r="G38">
-        <v>6.1399324673083733E-5</v>
+        <v>0.0001010333526190177</v>
       </c>
       <c r="H38">
-        <v>4.6100753759195381E-2</v>
+        <v>0.05913690770748974</v>
       </c>
       <c r="I38">
-        <v>4.6100753759195368E-2</v>
+        <v>0.05913690770748975</v>
       </c>
       <c r="J38">
-        <v>4.6100753759195381E-2</v>
+        <v>0.05913690770748975</v>
       </c>
       <c r="K38">
-        <v>1.0004087882437109</v>
+        <v>0.9998248162556539</v>
       </c>
       <c r="L38">
-        <v>0.54787923033988928</v>
+        <v>-0.5029365004218924</v>
       </c>
       <c r="M38">
-        <v>1.0004755458406349</v>
+        <v>0.9996272499500083</v>
       </c>
       <c r="N38">
-        <v>0.5313650157151365</v>
+        <v>-0.5215184031415864</v>
       </c>
       <c r="O38">
-        <v>4.6100753759195383</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11.82738154149795</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.32633785218327682</v>
+        <v>0.398527183227284</v>
       </c>
       <c r="C39">
-        <v>12.13819738171216</v>
+        <v>-0.3983293717575375</v>
       </c>
       <c r="D39">
-        <v>0.40000000000094238</v>
+        <v>-0.398368379866649</v>
       </c>
       <c r="E39">
-        <v>-12.125986712789929</v>
+        <v>0.3983556959324075</v>
       </c>
       <c r="F39">
-        <v>7.3662147817665558E-2</v>
+        <v>0.000158803360635007</v>
       </c>
       <c r="G39">
-        <v>1.221066892222389E-2</v>
+        <v>2.632417486997385e-05</v>
       </c>
       <c r="H39">
-        <v>0.63705992332298322</v>
+        <v>0.02957930329864565</v>
       </c>
       <c r="I39">
-        <v>0.63705992332298311</v>
+        <v>0.02957930329864566</v>
       </c>
       <c r="J39">
-        <v>0.63705992332298322</v>
+        <v>0.02957930329864566</v>
       </c>
       <c r="K39">
-        <v>1.0004087882437109</v>
+        <v>0.9998248162556539</v>
       </c>
       <c r="L39">
-        <v>0.54787923033988928</v>
+        <v>-0.5029365004218924</v>
       </c>
       <c r="M39">
-        <v>0.99958481314521286</v>
+        <v>0.9996585624678918</v>
       </c>
       <c r="N39">
-        <v>0.89717292878815835</v>
+        <v>-0.5162474348873705</v>
       </c>
       <c r="O39">
-        <v>63.705992332298322</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.915860659729133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9.4742166162919417E-3</v>
+        <v>0.3982304484406095</v>
       </c>
       <c r="C40">
-        <v>4.3550035550545259</v>
+        <v>-0.3980318047467555</v>
       </c>
       <c r="D40">
-        <v>2.266659082650335E-13</v>
+        <v>-0.3980718191807195</v>
       </c>
       <c r="E40">
-        <v>-4.3534330534355927</v>
+        <v>0.3980581000616665</v>
       </c>
       <c r="F40">
-        <v>9.4742166165186076E-3</v>
+        <v>0.0001586292598899086</v>
       </c>
       <c r="G40">
-        <v>1.5705016189331289E-3</v>
+        <v>2.629531491105119e-05</v>
       </c>
       <c r="H40">
-        <v>0.2284702995989133</v>
+        <v>0.02956308452670397</v>
       </c>
       <c r="I40">
-        <v>0.2284702995989133</v>
+        <v>0.02956308452670397</v>
       </c>
       <c r="J40">
-        <v>0.2284702995989133</v>
+        <v>0.02956308452670397</v>
       </c>
       <c r="K40">
-        <v>1.0004755458406349</v>
+        <v>0.9996272499500083</v>
       </c>
       <c r="L40">
-        <v>0.5313650157151365</v>
+        <v>-0.5215184031415864</v>
       </c>
       <c r="M40">
-        <v>1.00011238767836</v>
+        <v>0.9994610870265628</v>
       </c>
       <c r="N40">
-        <v>0.65601055574822575</v>
+        <v>-0.5348246558590277</v>
       </c>
       <c r="O40">
-        <v>22.84702995989133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.912616905340793</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.4955436225396313</v>
+        <v>0.3982754223570024</v>
       </c>
       <c r="C41">
-        <v>2.9426159190984249</v>
+        <v>-0.3980690327435853</v>
       </c>
       <c r="D41">
-        <v>0.49999999999997552</v>
+        <v>-0.3981168871230483</v>
       </c>
       <c r="E41">
-        <v>-2.9418772038780179</v>
+        <v>0.3980953124722067</v>
       </c>
       <c r="F41">
-        <v>4.4563774603442194E-3</v>
+        <v>0.0001585352339540935</v>
       </c>
       <c r="G41">
-        <v>7.3871522040658277E-4</v>
+        <v>2.627972862140338e-05</v>
       </c>
       <c r="H41">
-        <v>0.15669281422553841</v>
+        <v>0.02955432161397954</v>
       </c>
       <c r="I41">
-        <v>0.15669281422553841</v>
+        <v>0.02955432161397954</v>
       </c>
       <c r="J41">
-        <v>0.15669281422553841</v>
+        <v>0.02955432161397954</v>
       </c>
       <c r="K41">
-        <v>0.99954797197667267</v>
+        <v>1.000026870643594</v>
       </c>
       <c r="L41">
-        <v>0.67424768834171234</v>
+        <v>-0.5283202439965178</v>
       </c>
       <c r="M41">
-        <v>0.99955299821611199</v>
+        <v>0.9998607547029679</v>
       </c>
       <c r="N41">
-        <v>0.76098010600630905</v>
+        <v>-0.5416171429510681</v>
       </c>
       <c r="O41">
-        <v>15.669281422553841</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.910864322795907</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.987737117883065E-2</v>
+        <v>0.2980583149587822</v>
       </c>
       <c r="C42">
-        <v>6.305208937275661</v>
+        <v>-0.2979316765556363</v>
       </c>
       <c r="D42">
-        <v>-1.165872953734493E-13</v>
+        <v>-0.2979695081552718</v>
       </c>
       <c r="E42">
-        <v>-6.301913947844886</v>
+        <v>0.2979463976913598</v>
       </c>
       <c r="F42">
-        <v>1.9877371178714059E-2</v>
+        <v>8.880680351036618e-05</v>
       </c>
       <c r="G42">
-        <v>3.2949894307749972E-3</v>
+        <v>1.472113572342781e-05</v>
       </c>
       <c r="H42">
-        <v>0.33093109011584321</v>
+        <v>0.02211980099113829</v>
       </c>
       <c r="I42">
-        <v>0.33093109011584321</v>
+        <v>0.02211980099113829</v>
       </c>
       <c r="J42">
-        <v>0.33093109011584321</v>
+        <v>0.02211980099113829</v>
       </c>
       <c r="K42">
-        <v>1.0000247718324839</v>
+        <v>0.9999757097909894</v>
       </c>
       <c r="L42">
-        <v>0.63314495914013091</v>
+        <v>-0.5393072289565728</v>
       </c>
       <c r="M42">
-        <v>0.99949721005346348</v>
+        <v>0.9998513840917449</v>
       </c>
       <c r="N42">
-        <v>0.81377112312185462</v>
+        <v>-0.5492596599310701</v>
       </c>
       <c r="O42">
-        <v>33.093109011584318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.423960198227659</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.36897086821573549</v>
+        <v>11.11809196720763</v>
       </c>
       <c r="C43">
-        <v>-28.332003451481281</v>
+        <v>-8.884898095434131</v>
       </c>
       <c r="D43">
-        <v>0.40659148499228748</v>
+        <v>-11.10861015269592</v>
       </c>
       <c r="E43">
-        <v>28.35132465713442</v>
+        <v>8.889767768072245</v>
       </c>
       <c r="F43">
-        <v>3.7620616776551929E-2</v>
+        <v>0.009481814511707043</v>
       </c>
       <c r="G43">
-        <v>1.9321205653142211E-2</v>
+        <v>0.004869672638113443</v>
       </c>
       <c r="H43">
-        <v>1.4871706261504221</v>
+        <v>0.7466096016123339</v>
       </c>
       <c r="I43">
-        <v>1.4871706261504221</v>
+        <v>0.7466096016123341</v>
       </c>
       <c r="J43">
-        <v>1.4871706261504221</v>
+        <v>0.7466096016123341</v>
       </c>
       <c r="K43">
-        <v>1.0000000000000091</v>
+        <v>1.000513302864211</v>
       </c>
       <c r="L43">
-        <v>0.20180701490909289</v>
+        <v>-0.2779823673728393</v>
       </c>
       <c r="M43">
-        <v>1.000699999999989</v>
+        <v>1.000206530739358</v>
       </c>
       <c r="N43">
-        <v>0.12630138511987721</v>
+        <v>-0.317139405425304</v>
       </c>
       <c r="O43">
-        <v>74.358531307521119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74.66096016123342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-8.9176003885538951E-2</v>
+        <v>2.971277768100637</v>
       </c>
       <c r="C44">
-        <v>12.65537266001726</v>
+        <v>-2.149785564267884</v>
       </c>
       <c r="D44">
-        <v>9.6670825991043555E-2</v>
+        <v>-2.970647764768076</v>
       </c>
       <c r="E44">
-        <v>-12.65152346742973</v>
+        <v>2.150109121534977</v>
       </c>
       <c r="F44">
-        <v>7.4948221055046033E-3</v>
+        <v>0.0006300033325610244</v>
       </c>
       <c r="G44">
-        <v>3.8491925875216988E-3</v>
+        <v>0.0003235572670932108</v>
       </c>
       <c r="H44">
-        <v>0.66378664088334904</v>
+        <v>0.1924505987384621</v>
       </c>
       <c r="I44">
-        <v>0.66378664088334893</v>
+        <v>0.1924505987384621</v>
       </c>
       <c r="J44">
-        <v>0.66378664088334904</v>
+        <v>0.1924505987384621</v>
       </c>
       <c r="K44">
-        <v>1.000699999999989</v>
+        <v>1.000206530739358</v>
       </c>
       <c r="L44">
-        <v>0.12630138511987721</v>
+        <v>-0.317139405425304</v>
       </c>
       <c r="M44">
-        <v>1.000399999999998</v>
+        <v>1.000119068017713</v>
       </c>
       <c r="N44">
-        <v>0.1603646718746394</v>
+        <v>-0.3270051045191191</v>
       </c>
       <c r="O44">
-        <v>66.378664088334901</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25.66007983179494</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-6.1670825995007721E-2</v>
+        <v>1.850622720295996</v>
       </c>
       <c r="C45">
-        <v>-4.0360707790658186</v>
+        <v>-2.150106642338693</v>
       </c>
       <c r="D45">
-        <v>6.2433728876591599E-2</v>
+        <v>-1.85024569589965</v>
       </c>
       <c r="E45">
-        <v>4.0364625909161154</v>
+        <v>2.150300274621262</v>
       </c>
       <c r="F45">
-        <v>7.6290288158387815E-4</v>
+        <v>0.0003770243963461262</v>
       </c>
       <c r="G45">
-        <v>3.9181185029590893E-4</v>
+        <v>0.0001936322825684123</v>
       </c>
       <c r="H45">
-        <v>0.21177879400145011</v>
+        <v>0.1488787006595109</v>
       </c>
       <c r="I45">
-        <v>0.21177879400145011</v>
+        <v>0.1488787006595109</v>
       </c>
       <c r="J45">
-        <v>0.21177879400145011</v>
+        <v>0.1488787006595109</v>
       </c>
       <c r="K45">
-        <v>1.000399999999998</v>
+        <v>1.000119068017713</v>
       </c>
       <c r="L45">
-        <v>0.1603646718746394</v>
+        <v>-0.3270051045191191</v>
       </c>
       <c r="M45">
-        <v>1.0004999999999959</v>
+        <v>1.000084108185011</v>
       </c>
       <c r="N45">
-        <v>0.14962312647825621</v>
+        <v>-0.3353279305399989</v>
       </c>
       <c r="O45">
-        <v>21.177879400145009</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>19.85049342126813</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-3.24337288727456E-2</v>
+        <v>0.6501698529725009</v>
       </c>
       <c r="C46">
-        <v>12.542234867001991</v>
+        <v>-0.9502166502243345</v>
       </c>
       <c r="D46">
-        <v>3.979777101431204E-2</v>
+        <v>-0.6501077449379762</v>
       </c>
       <c r="E46">
-        <v>-12.538452840420639</v>
+        <v>0.9502485476840412</v>
       </c>
       <c r="F46">
-        <v>7.3640421415664403E-3</v>
+        <v>6.210803452466607e-05</v>
       </c>
       <c r="G46">
-        <v>3.7820265813461869E-3</v>
+        <v>3.189745970666458e-05</v>
       </c>
       <c r="H46">
-        <v>0.65796982313623875</v>
+        <v>0.06042570638444535</v>
       </c>
       <c r="I46">
-        <v>0.65796982313623875</v>
+        <v>0.06042570638444535</v>
       </c>
       <c r="J46">
-        <v>0.65796982313623875</v>
+        <v>0.06042570638444535</v>
       </c>
       <c r="K46">
-        <v>1.0004999999999959</v>
+        <v>1.000084108185011</v>
       </c>
       <c r="L46">
-        <v>0.14962312647825621</v>
+        <v>-0.3353279305399989</v>
       </c>
       <c r="M46">
-        <v>1.000199999999998</v>
+        <v>1.000076512020994</v>
       </c>
       <c r="N46">
-        <v>0.1833183029414267</v>
+        <v>-0.3387750784044432</v>
       </c>
       <c r="O46">
-        <v>65.796982313623872</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.05676085125938</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.0222897825543891E-4</v>
+        <v>-0.3000012921600618</v>
       </c>
       <c r="C47">
-        <v>2.0778285205204949</v>
+        <v>-0.0001312838135621658</v>
       </c>
       <c r="D47">
-        <v>5.0950242289071754E-12</v>
+        <v>0.3000055089072829</v>
       </c>
       <c r="E47">
-        <v>-2.0777246597092929</v>
+        <v>0.0001334494516412187</v>
       </c>
       <c r="F47">
-        <v>2.0222898335046319E-4</v>
+        <v>4.216747221175154e-06</v>
       </c>
       <c r="G47">
-        <v>1.038608112020611E-4</v>
+        <v>2.165638079052856e-06</v>
       </c>
       <c r="H47">
-        <v>0.1090359074852484</v>
+        <v>0.01574478109594047</v>
       </c>
       <c r="I47">
-        <v>0.1090359074852484</v>
+        <v>0.01574478109594047</v>
       </c>
       <c r="J47">
-        <v>0.1090359074852484</v>
+        <v>0.01574478109594047</v>
       </c>
       <c r="K47">
-        <v>1.000199999999998</v>
+        <v>1.000076512020994</v>
       </c>
       <c r="L47">
-        <v>0.1833183029414267</v>
+        <v>-0.3387750784044432</v>
       </c>
       <c r="M47">
-        <v>1.000150000000001</v>
+        <v>1.000090572042529</v>
       </c>
       <c r="N47">
-        <v>0.1888947338596669</v>
+        <v>-0.3383618320923105</v>
       </c>
       <c r="O47">
-        <v>10.90359074852484</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.099304146125396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.31741548110955642</v>
+        <v>8.137378024937631</v>
       </c>
       <c r="C48">
-        <v>28.514997267457989</v>
+        <v>-6.739980050757886</v>
       </c>
       <c r="D48">
-        <v>0.35546860964825638</v>
+        <v>-8.132148590940876</v>
       </c>
       <c r="E48">
-        <v>-28.49545393230725</v>
+        <v>6.742665784761159</v>
       </c>
       <c r="F48">
-        <v>3.8053128538700083E-2</v>
+        <v>0.005229433996754906</v>
       </c>
       <c r="G48">
-        <v>1.954333515073969E-2</v>
+        <v>0.002685734003272877</v>
       </c>
       <c r="H48">
-        <v>1.495694949727242</v>
+        <v>0.5544663394832702</v>
       </c>
       <c r="I48">
-        <v>1.495694949727242</v>
+        <v>0.5544663394832702</v>
       </c>
       <c r="J48">
-        <v>1.495694949727242</v>
+        <v>0.5544663394832702</v>
       </c>
       <c r="K48">
-        <v>1.000699999999989</v>
+        <v>1.000206530739358</v>
       </c>
       <c r="L48">
-        <v>0.12630138511987721</v>
+        <v>-0.317139405425304</v>
       </c>
       <c r="M48">
-        <v>1.000029999999992</v>
+        <v>0.9999875984724159</v>
       </c>
       <c r="N48">
-        <v>0.2032414626451757</v>
+        <v>-0.3464500880296919</v>
       </c>
       <c r="O48">
-        <v>74.784747486362107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>73.92884526443602</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.31046860964971318</v>
+        <v>7.232332843946725</v>
       </c>
       <c r="C49">
-        <v>-0.47586677981456071</v>
+        <v>-6.742663643031568</v>
       </c>
       <c r="D49">
-        <v>0.31048373686202441</v>
+        <v>-7.227751269498315</v>
       </c>
       <c r="E49">
-        <v>0.47587454885199448</v>
+        <v>6.745016649168035</v>
       </c>
       <c r="F49">
-        <v>1.51272123111168E-5</v>
+        <v>0.004581574448410564</v>
       </c>
       <c r="G49">
-        <v>7.7690374338246215E-6</v>
+        <v>0.002353006136466718</v>
       </c>
       <c r="H49">
-        <v>2.9821349618480739E-2</v>
+        <v>0.5189854916369446</v>
       </c>
       <c r="I49">
-        <v>2.9821349618480739E-2</v>
+        <v>0.5189854916369446</v>
       </c>
       <c r="J49">
-        <v>2.9821349618480739E-2</v>
+        <v>0.5189854916369446</v>
       </c>
       <c r="K49">
-        <v>1.000029999999992</v>
+        <v>0.9999875984724159</v>
       </c>
       <c r="L49">
-        <v>0.2032414626451757</v>
+        <v>-0.3464500880296919</v>
       </c>
       <c r="M49">
-        <v>1.000055999999983</v>
+        <v>0.9998110825560164</v>
       </c>
       <c r="N49">
-        <v>0.20239200499755011</v>
+        <v>-0.3745313638325077</v>
       </c>
       <c r="O49">
-        <v>2.9821349618480739</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>69.19806555159262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.24548373686171751</v>
+        <v>5.928088339243293</v>
       </c>
       <c r="C50">
-        <v>-0.31154924107911081</v>
+        <v>-5.445347863335761</v>
       </c>
       <c r="D50">
-        <v>0.24549110821671291</v>
+        <v>-5.925050974923629</v>
       </c>
       <c r="E50">
-        <v>0.31155302686142938</v>
+        <v>5.446907793653023</v>
       </c>
       <c r="F50">
-        <v>7.3713549953724478E-6</v>
+        <v>0.003037364319664171</v>
       </c>
       <c r="G50">
-        <v>3.7857823186326911E-6</v>
+        <v>0.00155993031726176</v>
       </c>
       <c r="H50">
-        <v>2.081716126509818E-2</v>
+        <v>0.4225676893319294</v>
       </c>
       <c r="I50">
-        <v>2.081716126509818E-2</v>
+        <v>0.4225676893319294</v>
       </c>
       <c r="J50">
-        <v>2.081716126509818E-2</v>
+        <v>0.4225676893319294</v>
       </c>
       <c r="K50">
-        <v>1.000055999999983</v>
+        <v>0.9998110825560164</v>
       </c>
       <c r="L50">
-        <v>0.20239200499755011</v>
+        <v>-0.3745313638325077</v>
       </c>
       <c r="M50">
-        <v>1.000075000000012</v>
+        <v>0.9996643951127117</v>
       </c>
       <c r="N50">
-        <v>0.20189410097797419</v>
+        <v>-0.3973374404993696</v>
       </c>
       <c r="O50">
-        <v>2.0817161265098179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>56.34235857759059</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.23049110820889049</v>
+        <v>4.955544273339524</v>
       </c>
       <c r="C51">
-        <v>-0.27842421390217442</v>
+        <v>-5.446905874536608</v>
       </c>
       <c r="D51">
-        <v>0.23049635486402889</v>
+        <v>-4.953364799586166</v>
       </c>
       <c r="E51">
-        <v>0.27842690848061591</v>
+        <v>5.448025209204999</v>
       </c>
       <c r="F51">
-        <v>5.2466551384577897E-6</v>
+        <v>0.002179473753358252</v>
       </c>
       <c r="G51">
-        <v>2.694578441486684E-6</v>
+        <v>0.00111933466839087</v>
       </c>
       <c r="H51">
-        <v>1.896978888004841E-2</v>
+        <v>0.3866313444698592</v>
       </c>
       <c r="I51">
-        <v>1.896978888004841E-2</v>
+        <v>0.3866313444698593</v>
       </c>
       <c r="J51">
-        <v>1.896978888004841E-2</v>
+        <v>0.3866313444698593</v>
       </c>
       <c r="K51">
-        <v>1.000075000000012</v>
+        <v>0.9996643951127117</v>
       </c>
       <c r="L51">
-        <v>0.20189410097797419</v>
+        <v>-0.3973374404993696</v>
       </c>
       <c r="M51">
-        <v>1.000089999999999</v>
+        <v>0.999577736034482</v>
       </c>
       <c r="N51">
-        <v>0.20152584180351879</v>
+        <v>-0.415743333184087</v>
       </c>
       <c r="O51">
-        <v>1.896978888004841</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>51.55084592931457</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.1804963548666989</v>
+        <v>3.953986297787775</v>
       </c>
       <c r="C52">
-        <v>3.676570312125536</v>
+        <v>-4.448641647275609</v>
       </c>
       <c r="D52">
-        <v>0.18113117507541229</v>
+        <v>-3.952324924245298</v>
       </c>
       <c r="E52">
-        <v>-3.676244281005999</v>
+        <v>4.449494895909772</v>
       </c>
       <c r="F52">
-        <v>6.3482020871341582E-4</v>
+        <v>0.001661373542477751</v>
       </c>
       <c r="G52">
-        <v>3.2603111953699582E-4</v>
+        <v>0.0008532486341623624</v>
       </c>
       <c r="H52">
-        <v>0.1931849166857926</v>
+        <v>0.312522642799082</v>
       </c>
       <c r="I52">
-        <v>0.19318491668579271</v>
+        <v>0.312522642799082</v>
       </c>
       <c r="J52">
-        <v>0.19318491668579271</v>
+        <v>0.312522642799082</v>
       </c>
       <c r="K52">
-        <v>1.000089999999999</v>
+        <v>0.999577736034482</v>
       </c>
       <c r="L52">
-        <v>0.20152584180351879</v>
+        <v>-0.415743333184087</v>
       </c>
       <c r="M52">
-        <v>1.000009999999997</v>
+        <v>0.9994995288323182</v>
       </c>
       <c r="N52">
-        <v>0.21164476048927311</v>
+        <v>-0.4331554398907389</v>
       </c>
       <c r="O52">
-        <v>19.31849166857927</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41.66968570654427</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.12528603565614321</v>
+        <v>2.728510731258911</v>
       </c>
       <c r="C53">
-        <v>-0.46244082964441069</v>
+        <v>-2.726853820099701</v>
       </c>
       <c r="D53">
-        <v>0.12529679195170279</v>
+        <v>-2.727812739813032</v>
       </c>
       <c r="E53">
-        <v>0.46244635386534011</v>
+        <v>2.727212294718819</v>
       </c>
       <c r="F53">
-        <v>1.0756295559521961E-5</v>
+        <v>0.0006979914458793424</v>
       </c>
       <c r="G53">
-        <v>5.524220929364887E-6</v>
+        <v>0.0003584746191180876</v>
       </c>
       <c r="H53">
-        <v>2.514659612865142E-2</v>
+        <v>0.2025689576202681</v>
       </c>
       <c r="I53">
-        <v>2.514659612865142E-2</v>
+        <v>0.2025689576202682</v>
       </c>
       <c r="J53">
-        <v>2.514659612865142E-2</v>
+        <v>0.2025689576202682</v>
       </c>
       <c r="K53">
-        <v>1.000009999999997</v>
+        <v>0.9994995288323182</v>
       </c>
       <c r="L53">
-        <v>0.21164476048927311</v>
+        <v>-0.4331554398907389</v>
       </c>
       <c r="M53">
-        <v>1.0000270000000051</v>
+        <v>0.9994372845306275</v>
       </c>
       <c r="N53">
-        <v>0.21057597020127111</v>
+        <v>-0.4442507392345495</v>
       </c>
       <c r="O53">
-        <v>2.5146596128651422</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27.00919434936909</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-8.4696791951946321E-2</v>
+        <v>1.916639808579313</v>
       </c>
       <c r="C54">
-        <v>-12.00368468927639</v>
+        <v>-1.916035026130554</v>
       </c>
       <c r="D54">
-        <v>9.1448676630432824E-2</v>
+        <v>-1.916295251989815</v>
       </c>
       <c r="E54">
-        <v>12.007152323876699</v>
+        <v>1.916211983588864</v>
       </c>
       <c r="F54">
-        <v>6.7518846784865028E-3</v>
+        <v>0.0003445565894986125</v>
       </c>
       <c r="G54">
-        <v>3.467634600308855E-3</v>
+        <v>0.0001769574583105893</v>
       </c>
       <c r="H54">
-        <v>0.63002872560729462</v>
+        <v>0.1423239941544694</v>
       </c>
       <c r="I54">
-        <v>0.63002872560729462</v>
+        <v>0.1423239941544694</v>
       </c>
       <c r="J54">
-        <v>0.63002872560729462</v>
+        <v>0.1423239941544694</v>
       </c>
       <c r="K54">
-        <v>1.0000270000000051</v>
+        <v>0.9994372845306275</v>
       </c>
       <c r="L54">
-        <v>0.21057597020127111</v>
+        <v>-0.4442507392345495</v>
       </c>
       <c r="M54">
-        <v>1.0003199999999981</v>
+        <v>0.999393567906849</v>
       </c>
       <c r="N54">
-        <v>0.17847578021116389</v>
+        <v>-0.4520469510868164</v>
       </c>
       <c r="O54">
-        <v>63.002872560729458</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>18.97653255392925</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-3.8948676617452223E-2</v>
+        <v>0.8671680437155114</v>
       </c>
       <c r="C55">
-        <v>10.53064822119978</v>
+        <v>-0.8670806055722717</v>
       </c>
       <c r="D55">
-        <v>4.3400000001746861E-2</v>
+        <v>-0.867107569459485</v>
       </c>
       <c r="E55">
-        <v>-10.52836210943698</v>
+        <v>0.8671116639556137</v>
       </c>
       <c r="F55">
-        <v>4.4513233842946448E-3</v>
+        <v>6.047425602639933e-05</v>
       </c>
       <c r="G55">
-        <v>2.2861117627996919E-3</v>
+        <v>3.1058383341942e-05</v>
       </c>
       <c r="H55">
-        <v>0.55254265638576361</v>
+        <v>0.06440306037460664</v>
       </c>
       <c r="I55">
-        <v>0.5525426563857635</v>
+        <v>0.06440306037460662</v>
       </c>
       <c r="J55">
-        <v>0.55254265638576361</v>
+        <v>0.06440306037460664</v>
       </c>
       <c r="K55">
-        <v>1.0003199999999981</v>
+        <v>0.999393567906849</v>
       </c>
       <c r="L55">
-        <v>0.17847578021116389</v>
+        <v>-0.4520469510868164</v>
       </c>
       <c r="M55">
-        <v>1.000104495842717</v>
+        <v>0.9993766151867124</v>
       </c>
       <c r="N55">
-        <v>0.20274570835155351</v>
+        <v>-0.4550709914403444</v>
       </c>
       <c r="O55">
-        <v>55.254265638576364</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.587074716614218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-5.5845139404435737E-2</v>
+        <v>1.22457472077246</v>
       </c>
       <c r="C56">
-        <v>-13.680630598298981</v>
+        <v>-1.723397036587944</v>
       </c>
       <c r="D56">
-        <v>6.3362435943035977E-2</v>
+        <v>-1.224395014928404</v>
       </c>
       <c r="E56">
-        <v>13.684491333311399</v>
+        <v>1.723489329959706</v>
       </c>
       <c r="F56">
-        <v>7.5172965386002396E-3</v>
+        <v>0.0001797058440555777</v>
       </c>
       <c r="G56">
-        <v>3.8607350124166828E-3</v>
+        <v>9.229337176175356e-05</v>
       </c>
       <c r="H56">
-        <v>0.71804568914579792</v>
+        <v>0.1110202851172673</v>
       </c>
       <c r="I56">
-        <v>0.71804568914579792</v>
+        <v>0.1110202851172673</v>
       </c>
       <c r="J56">
-        <v>0.71804568914579792</v>
+        <v>0.1110202851172673</v>
       </c>
       <c r="K56">
-        <v>1.000009999999997</v>
+        <v>0.9994995288323182</v>
       </c>
       <c r="L56">
-        <v>0.21164476048927311</v>
+        <v>-0.4331554398907389</v>
       </c>
       <c r="M56">
-        <v>1.0002945958845531</v>
+        <v>0.9994858914822263</v>
       </c>
       <c r="N56">
-        <v>0.18023707269910411</v>
+        <v>-0.4385743212388087</v>
       </c>
       <c r="O56">
-        <v>71.804568914579789</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14.80270468230231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-2.976243594801703E-2</v>
+        <v>0.3532029041173921</v>
       </c>
       <c r="C57">
-        <v>3.965315684082471</v>
+        <v>-0.8522928473941478</v>
       </c>
       <c r="D57">
-        <v>3.0393647669364449E-2</v>
+        <v>-0.3531686820363014</v>
       </c>
       <c r="E57">
-        <v>-3.964991506210767</v>
+        <v>0.8523104231790043</v>
       </c>
       <c r="F57">
-        <v>6.3121172134742234E-4</v>
+        <v>3.422208109071789e-05</v>
       </c>
       <c r="G57">
-        <v>3.2417787170446738E-4</v>
+        <v>1.757578485650502e-05</v>
       </c>
       <c r="H57">
-        <v>0.20806966382257491</v>
+        <v>0.04844784299060651</v>
       </c>
       <c r="I57">
-        <v>0.20806966382257491</v>
+        <v>0.04844784299060651</v>
       </c>
       <c r="J57">
-        <v>0.20806966382257491</v>
+        <v>0.04844784299060651</v>
       </c>
       <c r="K57">
-        <v>1.0002945958845531</v>
+        <v>0.9994858914822263</v>
       </c>
       <c r="L57">
-        <v>0.18023707269910411</v>
+        <v>-0.4385743212388087</v>
       </c>
       <c r="M57">
-        <v>1.000214030884961</v>
+        <v>0.9994892887761517</v>
       </c>
       <c r="N57">
-        <v>0.18939297869386679</v>
+        <v>-0.4409555954278133</v>
       </c>
       <c r="O57">
-        <v>20.806966382257489</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.459712398747534</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.230635232941377E-2</v>
+        <v>-0.4999926310159665</v>
       </c>
       <c r="C58">
-        <v>-17.507819404223511</v>
+        <v>0.0008551180063370999</v>
       </c>
       <c r="D58">
-        <v>3.442281182319817E-12</v>
+        <v>0.5000026823356973</v>
       </c>
       <c r="E58">
-        <v>17.514139703693221</v>
+        <v>-0.0008499558470679044</v>
       </c>
       <c r="F58">
-        <v>1.230635233285605E-2</v>
+        <v>1.005131973086382e-05</v>
       </c>
       <c r="G58">
-        <v>6.320299469713575E-3</v>
+        <v>5.16215926919545e-06</v>
       </c>
       <c r="H58">
-        <v>0.9187257954914918</v>
+        <v>0.02625625502684784</v>
       </c>
       <c r="I58">
-        <v>0.9187257954914918</v>
+        <v>0.02625625502684784</v>
       </c>
       <c r="J58">
-        <v>0.9187257954914918</v>
+        <v>0.02625625502684784</v>
       </c>
       <c r="K58">
-        <v>1.000214030884961</v>
+        <v>0.9994892887761517</v>
       </c>
       <c r="L58">
-        <v>0.18939297869386679</v>
+        <v>-0.4409555954278133</v>
       </c>
       <c r="M58">
-        <v>1.0005748596365349</v>
+        <v>0.9995093637914759</v>
       </c>
       <c r="N58">
-        <v>0.1491194347721943</v>
+        <v>-0.4403620905859756</v>
       </c>
       <c r="O58">
-        <v>91.872579549149179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.500834003579712</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-1.620252328991123</v>
+        <v>4.197532934818982</v>
       </c>
       <c r="C59">
-        <v>28.13936415782053</v>
+        <v>-4.71393296936295</v>
       </c>
       <c r="D59">
-        <v>1.6574351839154771</v>
+        <v>-4.195669091216663</v>
       </c>
       <c r="E59">
-        <v>-28.120267778007531</v>
+        <v>4.714890202620437</v>
       </c>
       <c r="F59">
-        <v>3.7182854924354247E-2</v>
+        <v>0.001863843602318838</v>
       </c>
       <c r="G59">
-        <v>1.9096379812996389E-2</v>
+        <v>0.0009572332574876441</v>
       </c>
       <c r="H59">
-        <v>1.4784927841083291</v>
+        <v>0.331018736654642</v>
       </c>
       <c r="I59">
-        <v>1.4784927841083291</v>
+        <v>0.3310187366546419</v>
       </c>
       <c r="J59">
-        <v>1.4784927841083291</v>
+        <v>0.331018736654642</v>
       </c>
       <c r="K59">
-        <v>1.000599999999999</v>
+        <v>1.00082054181485</v>
       </c>
       <c r="L59">
-        <v>0.1325555460840509</v>
+        <v>-0.2388493521489393</v>
       </c>
       <c r="M59">
-        <v>1.0000000000000031</v>
+        <v>1.000737413502135</v>
       </c>
       <c r="N59">
-        <v>0.2102930950483565</v>
+        <v>-0.2572647854030278</v>
       </c>
       <c r="O59">
-        <v>73.924639205416455</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>66.20374733092839</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.33820813457504217</v>
+        <v>11.12757063131037</v>
       </c>
       <c r="C60">
-        <v>25.635177200671681</v>
+        <v>-8.880030159466623</v>
       </c>
       <c r="D60">
-        <v>0.36897086821852892</v>
+        <v>-11.11808881863221</v>
       </c>
       <c r="E60">
-        <v>-25.619378068331319</v>
+        <v>8.884899831163063</v>
       </c>
       <c r="F60">
-        <v>3.0762733643486691E-2</v>
+        <v>0.009481812678165724</v>
       </c>
       <c r="G60">
-        <v>1.5799132340358572E-2</v>
+        <v>0.004869671696440037</v>
       </c>
       <c r="H60">
-        <v>1.344808067567322</v>
+        <v>0.7466095294245525</v>
       </c>
       <c r="I60">
-        <v>1.344808067567322</v>
+        <v>0.7466095294245524</v>
       </c>
       <c r="J60">
-        <v>1.344808067567322</v>
+        <v>0.7466095294245525</v>
       </c>
       <c r="K60">
-        <v>1.000599999999999</v>
+        <v>1.00082054181485</v>
       </c>
       <c r="L60">
-        <v>0.1325555460840509</v>
+        <v>-0.2388493521489393</v>
       </c>
       <c r="M60">
-        <v>1.0000000000000091</v>
+        <v>1.000513302864211</v>
       </c>
       <c r="N60">
-        <v>0.20180701490909289</v>
+        <v>-0.2779823673728393</v>
       </c>
       <c r="O60">
-        <v>67.240403378366096</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74.66095294245525</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-11.9037348684499</v>
+        <v>26.49633538470939</v>
       </c>
       <c r="C61">
-        <v>12.0964768612155</v>
+        <v>-18.97380996954372</v>
       </c>
       <c r="D61">
-        <v>11.938847570546359</v>
+        <v>-26.36755619013097</v>
       </c>
       <c r="E61">
-        <v>-12.07614619965995</v>
+        <v>19.048374616069</v>
       </c>
       <c r="F61">
-        <v>3.5112702096462563E-2</v>
+        <v>0.1287791945784278</v>
       </c>
       <c r="G61">
-        <v>2.0330661555549408E-2</v>
+        <v>0.07456464652527828</v>
       </c>
       <c r="H61">
-        <v>0.89076012402114779</v>
+        <v>1.705891846390301</v>
       </c>
       <c r="I61">
-        <v>0.8907601240211479</v>
+        <v>1.705891846390301</v>
       </c>
       <c r="J61">
-        <v>0.8907601240211479</v>
+        <v>1.705891846390301</v>
       </c>
       <c r="K61">
-        <v>1.0000000000000211</v>
+        <v>1.002697602681546</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
       <c r="M61">
-        <v>1.000599999999999</v>
+        <v>1.00082054181485</v>
       </c>
       <c r="N61">
-        <v>0.1325555460840509</v>
+        <v>-0.2388493521489393</v>
       </c>
       <c r="O61">
-        <v>44.538006201057392</v>
+        <v>136.4713477112241</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>75</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result/line_final.xlsx
+++ b/result/line_final.xlsx
@@ -468,46 +468,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.195668733516453</v>
+        <v>10.30368126002605</v>
       </c>
       <c r="C2">
-        <v>-4.71489026379087</v>
+        <v>0.01617200088577275</v>
       </c>
       <c r="D2">
-        <v>-4.193804890027589</v>
+        <v>-10.29078761804514</v>
       </c>
       <c r="E2">
-        <v>4.715847496990089</v>
+        <v>-0.008706432710125722</v>
       </c>
       <c r="F2">
-        <v>0.001863843488864703</v>
+        <v>0.01289364198091114</v>
       </c>
       <c r="G2">
-        <v>0.000957233199219587</v>
+        <v>0.007465568175647024</v>
       </c>
       <c r="H2">
-        <v>0.3310187265797773</v>
+        <v>0.5397795719797506</v>
       </c>
       <c r="I2">
-        <v>0.3310187265797774</v>
+        <v>0.5397795719797508</v>
       </c>
       <c r="J2">
-        <v>0.3310187265797774</v>
+        <v>0.5397795719797508</v>
       </c>
       <c r="K2">
-        <v>1.000737413502135</v>
+        <v>1.001897270197556</v>
       </c>
       <c r="L2">
-        <v>-0.2572647854030278</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.000654388605339</v>
+        <v>1.000642658975816</v>
       </c>
       <c r="N2">
-        <v>-0.2756832761110466</v>
+        <v>-0.04145313519285804</v>
       </c>
       <c r="O2">
-        <v>66.20374531595547</v>
+        <v>71.97060959730011</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -515,46 +515,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.615802711639664</v>
+        <v>2.144073742506413</v>
       </c>
       <c r="C3">
-        <v>-4.715848831159124</v>
+        <v>0.0004930357276088707</v>
       </c>
       <c r="D3">
-        <v>-3.614150113403239</v>
+        <v>-2.143858603518694</v>
       </c>
       <c r="E3">
-        <v>4.716697572969437</v>
+        <v>-0.0003825445931754383</v>
       </c>
       <c r="F3">
-        <v>0.001652598236424829</v>
+        <v>0.0002151389877185217</v>
       </c>
       <c r="G3">
-        <v>0.0008487418103131361</v>
+        <v>0.0001104911344334324</v>
       </c>
       <c r="H3">
-        <v>0.3116961842142346</v>
+        <v>0.1124624145768312</v>
       </c>
       <c r="I3">
-        <v>0.3116961842142346</v>
+        <v>0.1124624145768312</v>
       </c>
       <c r="J3">
-        <v>0.3116961842142346</v>
+        <v>0.1124624145768312</v>
       </c>
       <c r="K3">
-        <v>1.000654388605339</v>
+        <v>1.000642658975816</v>
       </c>
       <c r="L3">
-        <v>-0.2756832761110466</v>
+        <v>-0.04145313519285804</v>
       </c>
       <c r="M3">
-        <v>1.000598529972923</v>
+        <v>1.000542242739849</v>
       </c>
       <c r="N3">
-        <v>-0.2933083248813378</v>
+        <v>-0.04440474817476881</v>
       </c>
       <c r="O3">
-        <v>62.33923684284692</v>
+        <v>74.97494305122083</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -562,46 +562,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.981309709306671</v>
+        <v>2.143859107630043</v>
       </c>
       <c r="C4">
-        <v>-4.461878208437705</v>
+        <v>0.0003828965298733253</v>
       </c>
       <c r="D4">
-        <v>-2.979961930417673</v>
+        <v>-2.143643968541135</v>
       </c>
       <c r="E4">
-        <v>4.4625704010523</v>
+        <v>-0.000272405343471289</v>
       </c>
       <c r="F4">
-        <v>0.001347778888998619</v>
+        <v>0.0002151390889078009</v>
       </c>
       <c r="G4">
-        <v>0.0006921926145952995</v>
+        <v>0.0001104911864020363</v>
       </c>
       <c r="H4">
-        <v>0.2814862387161566</v>
+        <v>0.1124624410247711</v>
       </c>
       <c r="I4">
-        <v>0.2814862387161566</v>
+        <v>0.1124624410247711</v>
       </c>
       <c r="J4">
-        <v>0.2814862387161566</v>
+        <v>0.1124624410247711</v>
       </c>
       <c r="K4">
-        <v>1.000598529972923</v>
+        <v>1.000542242739849</v>
       </c>
       <c r="L4">
-        <v>-0.2933083248813378</v>
+        <v>-0.04440474817476881</v>
       </c>
       <c r="M4">
-        <v>1.000566266053257</v>
+        <v>1.000441829127612</v>
       </c>
       <c r="N4">
-        <v>-0.3093799700521505</v>
+        <v>-0.0473569534173364</v>
       </c>
       <c r="O4">
-        <v>56.29724774323132</v>
+        <v>74.97496068318075</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -609,46 +609,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9670866908793831</v>
+        <v>2.016944226160373</v>
       </c>
       <c r="C5">
-        <v>-2.452437301563838</v>
+        <v>0.000272289295351698</v>
       </c>
       <c r="D5">
-        <v>-0.9667613996382226</v>
+        <v>-2.016753767032506</v>
       </c>
       <c r="E5">
-        <v>2.452604364719792</v>
+        <v>-0.0001744732494344415</v>
       </c>
       <c r="F5">
-        <v>0.0003252912411605413</v>
+        <v>0.0001904591278676371</v>
       </c>
       <c r="G5">
-        <v>0.0001670631559544944</v>
+        <v>9.781604591725646e-05</v>
       </c>
       <c r="H5">
-        <v>0.1382878510812738</v>
+        <v>0.1058153661005305</v>
       </c>
       <c r="I5">
-        <v>0.1382878510812738</v>
+        <v>0.1058153661005305</v>
       </c>
       <c r="J5">
-        <v>0.1382878510812738</v>
+        <v>0.1058153661005305</v>
       </c>
       <c r="K5">
-        <v>1.000566266053257</v>
+        <v>1.000441829127612</v>
       </c>
       <c r="L5">
-        <v>-0.3093799700521505</v>
+        <v>-0.0473569534173364</v>
       </c>
       <c r="M5">
-        <v>1.000579971267382</v>
+        <v>1.000347352487416</v>
       </c>
       <c r="N5">
-        <v>-0.3172888359170663</v>
+        <v>-0.05013516730915525</v>
       </c>
       <c r="O5">
-        <v>55.31514043250954</v>
+        <v>70.5435774003537</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -656,46 +656,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6322385167799647</v>
+        <v>1.717846756243782</v>
       </c>
       <c r="C6">
-        <v>-2.118095837139762</v>
+        <v>0.0001729751207298646</v>
       </c>
       <c r="D6">
-        <v>-0.6320098239886767</v>
+        <v>-1.717708569979226</v>
       </c>
       <c r="E6">
-        <v>2.118213289239979</v>
+        <v>-0.0001020053848591821</v>
       </c>
       <c r="F6">
-        <v>0.0002286927912880099</v>
+        <v>0.0001381862645559728</v>
       </c>
       <c r="G6">
-        <v>0.0001174521002167417</v>
+        <v>7.096973587068247e-05</v>
       </c>
       <c r="H6">
-        <v>0.1159508884886643</v>
+        <v>0.09013226434940344</v>
       </c>
       <c r="I6">
-        <v>0.1159508884886642</v>
+        <v>0.09013226434940344</v>
       </c>
       <c r="J6">
-        <v>0.1159508884886643</v>
+        <v>0.09013226434940344</v>
       </c>
       <c r="K6">
-        <v>1.000579971267382</v>
+        <v>1.000347352487416</v>
       </c>
       <c r="L6">
-        <v>-0.3172888359170663</v>
+        <v>-0.05013516730915525</v>
       </c>
       <c r="M6">
-        <v>1.00060131338944</v>
+        <v>1.000266879683549</v>
       </c>
       <c r="N6">
-        <v>-0.3238396541049574</v>
+        <v>-0.05250196523244022</v>
       </c>
       <c r="O6">
-        <v>46.38035539546571</v>
+        <v>60.08817623293563</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -703,46 +703,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7540230463079087</v>
+        <v>1.016984686628383</v>
       </c>
       <c r="C7">
-        <v>-1.466039595514017</v>
+        <v>8.319463351356298e-05</v>
       </c>
       <c r="D7">
-        <v>-0.7538958435003362</v>
+        <v>-1.016936247676124</v>
       </c>
       <c r="E7">
-        <v>1.466104924363338</v>
+        <v>-5.831734445244736e-05</v>
       </c>
       <c r="F7">
-        <v>0.0001272028075725018</v>
+        <v>4.843895225836725e-05</v>
       </c>
       <c r="G7">
-        <v>6.532884932131111e-05</v>
+        <v>2.487728906111562e-05</v>
       </c>
       <c r="H7">
-        <v>0.08647611924034598</v>
+        <v>0.05336361147728097</v>
       </c>
       <c r="I7">
-        <v>0.08647611924034598</v>
+        <v>0.05336361147728098</v>
       </c>
       <c r="J7">
-        <v>0.08647611924034598</v>
+        <v>0.05336361147728098</v>
       </c>
       <c r="K7">
-        <v>1.00060131338944</v>
+        <v>1.000266879683549</v>
       </c>
       <c r="L7">
-        <v>-0.3238396541049574</v>
+        <v>-0.05250196523244022</v>
       </c>
       <c r="M7">
-        <v>1.000601265916897</v>
+        <v>1.00021923529784</v>
       </c>
       <c r="N7">
-        <v>-0.3288094872374159</v>
+        <v>-0.05390336736296912</v>
       </c>
       <c r="O7">
-        <v>34.59044769613839</v>
+        <v>53.36361147728097</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -750,46 +750,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5244055376007085</v>
+        <v>0.8384834746595481</v>
       </c>
       <c r="C8">
-        <v>-1.236633548161129</v>
+        <v>5.705506222618501e-05</v>
       </c>
       <c r="D8">
-        <v>-0.5243210922771067</v>
+        <v>-0.8384505443129722</v>
       </c>
       <c r="E8">
-        <v>1.236676917611274</v>
+        <v>-4.014268670076684e-05</v>
       </c>
       <c r="F8">
-        <v>8.444532360185608e-05</v>
+        <v>3.29303465759212e-05</v>
       </c>
       <c r="G8">
-        <v>4.336945014582483e-05</v>
+        <v>1.691237552541817e-05</v>
       </c>
       <c r="H8">
-        <v>0.0704588653814648</v>
+        <v>0.04399932297045826</v>
       </c>
       <c r="I8">
-        <v>0.0704588653814648</v>
+        <v>0.04399932297045826</v>
       </c>
       <c r="J8">
-        <v>0.0704588653814648</v>
+        <v>0.04399932297045826</v>
       </c>
       <c r="K8">
-        <v>1.000601265916897</v>
+        <v>1.00021923529784</v>
       </c>
       <c r="L8">
-        <v>-0.3288094872374159</v>
+        <v>-0.05390336736296912</v>
       </c>
       <c r="M8">
-        <v>1.000606452867703</v>
+        <v>1.000179951820686</v>
       </c>
       <c r="N8">
-        <v>-0.3328478822558539</v>
+        <v>-0.05505892669339404</v>
       </c>
       <c r="O8">
-        <v>28.18354615258592</v>
+        <v>43.99932297045826</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -797,46 +797,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3172488006329299</v>
+        <v>0.6991107885210697</v>
       </c>
       <c r="C9">
-        <v>-1.02962526736456</v>
+        <v>3.704349583559486e-05</v>
       </c>
       <c r="D9">
-        <v>-0.3171944732063912</v>
+        <v>-0.6990878939027393</v>
       </c>
       <c r="E9">
-        <v>1.029653168857696</v>
+        <v>-2.528527210057634e-05</v>
       </c>
       <c r="F9">
-        <v>5.432742653876943e-05</v>
+        <v>2.289461833038242e-05</v>
       </c>
       <c r="G9">
-        <v>2.790149313613988e-05</v>
+        <v>1.175822373501853e-05</v>
       </c>
       <c r="H9">
-        <v>0.05651417730327975</v>
+        <v>0.03668719830029044</v>
       </c>
       <c r="I9">
-        <v>0.05651417730327975</v>
+        <v>0.03668719830029044</v>
       </c>
       <c r="J9">
-        <v>0.05651417730327975</v>
+        <v>0.03668719830029044</v>
       </c>
       <c r="K9">
-        <v>1.000606452867703</v>
+        <v>1.000179951820686</v>
       </c>
       <c r="L9">
-        <v>-0.3328478822558539</v>
+        <v>-0.05505892669339404</v>
       </c>
       <c r="M9">
-        <v>1.000616361377519</v>
+        <v>1.000147196980066</v>
       </c>
       <c r="N9">
-        <v>-0.3360458120600212</v>
+        <v>-0.05602250665687938</v>
       </c>
       <c r="O9">
-        <v>22.6056709213119</v>
+        <v>36.68719830029044</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -844,46 +844,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.2285196203473471</v>
+        <v>0.5724684227482625</v>
       </c>
       <c r="C10">
-        <v>-0.484012714968903</v>
+        <v>2.356343843546284e-05</v>
       </c>
       <c r="D10">
-        <v>0.2285330285707181</v>
+        <v>-0.5724530704670399</v>
       </c>
       <c r="E10">
-        <v>0.4840196011675725</v>
+        <v>-1.567881005452854e-05</v>
       </c>
       <c r="F10">
-        <v>1.340822337103642e-05</v>
+        <v>1.535228122262478e-05</v>
       </c>
       <c r="G10">
-        <v>6.886198669509014e-06</v>
+        <v>7.884628380934303e-06</v>
       </c>
       <c r="H10">
-        <v>0.02807588542172858</v>
+        <v>0.03004237769420715</v>
       </c>
       <c r="I10">
-        <v>0.02807588542172857</v>
+        <v>0.03004237769420714</v>
       </c>
       <c r="J10">
-        <v>0.02807588542172858</v>
+        <v>0.03004237769420715</v>
       </c>
       <c r="K10">
-        <v>1.000616361377519</v>
+        <v>1.000147196980066</v>
       </c>
       <c r="L10">
-        <v>-0.3360458120600212</v>
+        <v>-0.05602250665687938</v>
       </c>
       <c r="M10">
-        <v>1.00063870437566</v>
+        <v>1.000120374869561</v>
       </c>
       <c r="N10">
-        <v>-0.3370289774514505</v>
+        <v>-0.05681160142437295</v>
       </c>
       <c r="O10">
-        <v>11.23035416869143</v>
+        <v>30.04237769420715</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -891,46 +891,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2548592975670074</v>
+        <v>0.4241491643606518</v>
       </c>
       <c r="C11">
-        <v>-0.2548219754694497</v>
+        <v>1.37902577773952e-05</v>
       </c>
       <c r="D11">
-        <v>-0.2548328579389582</v>
+        <v>-0.4241407362472504</v>
       </c>
       <c r="E11">
-        <v>0.2548246998447486</v>
+        <v>-9.461745215680122e-06</v>
       </c>
       <c r="F11">
-        <v>2.643962804921296e-05</v>
+        <v>8.428113401404147e-06</v>
       </c>
       <c r="G11">
-        <v>2.724375298968074e-06</v>
+        <v>4.32851256171508e-06</v>
       </c>
       <c r="H11">
-        <v>0.01890473122050196</v>
+        <v>0.02225937819839897</v>
       </c>
       <c r="I11">
-        <v>0.01890473122050195</v>
+        <v>0.02225937819839897</v>
       </c>
       <c r="J11">
-        <v>0.01890473122050196</v>
+        <v>0.02225937819839897</v>
       </c>
       <c r="K11">
-        <v>1.000598529972923</v>
+        <v>1.000120374869561</v>
       </c>
       <c r="L11">
-        <v>-0.2933083248813378</v>
+        <v>-0.05681160142437295</v>
       </c>
       <c r="M11">
-        <v>1.000551969994761</v>
+        <v>1.00010050156249</v>
       </c>
       <c r="N11">
-        <v>-0.2965867513021286</v>
+        <v>-0.05739628895781759</v>
       </c>
       <c r="O11">
-        <v>18.90473122050196</v>
+        <v>22.25937819839897</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -938,46 +938,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.634943226514887</v>
+        <v>0.0953729048771345</v>
       </c>
       <c r="C12">
-        <v>-1.632212662641533</v>
+        <v>4.712649969241289e-06</v>
       </c>
       <c r="D12">
-        <v>-1.633675654040442</v>
+        <v>-0.0953724787291677</v>
       </c>
       <c r="E12">
-        <v>1.632343275036406</v>
+        <v>-4.493788791235494e-06</v>
       </c>
       <c r="F12">
-        <v>0.001267572474444867</v>
+        <v>4.261479668032919e-07</v>
       </c>
       <c r="G12">
-        <v>0.0001306123948727755</v>
+        <v>2.188611780057955e-07</v>
       </c>
       <c r="H12">
-        <v>0.1211869461516459</v>
+        <v>0.005005276268408213</v>
       </c>
       <c r="I12">
-        <v>0.121186946151646</v>
+        <v>0.005005276268408213</v>
       </c>
       <c r="J12">
-        <v>0.121186946151646</v>
+        <v>0.005005276268408213</v>
       </c>
       <c r="K12">
-        <v>1.000566266053257</v>
+        <v>1.00010050156249</v>
       </c>
       <c r="L12">
-        <v>-0.3093799700521505</v>
+        <v>-0.05739628895781759</v>
       </c>
       <c r="M12">
-        <v>1.000217806012907</v>
+        <v>1.000096032773798</v>
       </c>
       <c r="N12">
-        <v>-0.3338916515555381</v>
+        <v>-0.05752775891066191</v>
       </c>
       <c r="O12">
-        <v>48.4747784606584</v>
+        <v>5.005276268408212</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -985,46 +985,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.214024980313835</v>
+        <v>0.1288170054345942</v>
       </c>
       <c r="C13">
-        <v>-1.212706804997027</v>
+        <v>9.323462567957481e-07</v>
       </c>
       <c r="D13">
-        <v>-1.213325172128583</v>
+        <v>-0.1288136259346322</v>
       </c>
       <c r="E13">
-        <v>1.212778914185946</v>
+        <v>-5.841179760391279e-07</v>
       </c>
       <c r="F13">
-        <v>0.0006998081852511717</v>
+        <v>3.379499961986276e-06</v>
       </c>
       <c r="G13">
-        <v>7.210918891864537e-05</v>
+        <v>3.482282807566202e-07</v>
       </c>
       <c r="H13">
-        <v>0.09004486486193269</v>
+        <v>0.006758791659251818</v>
       </c>
       <c r="I13">
-        <v>0.09004486486193269</v>
+        <v>0.006758791659251819</v>
       </c>
       <c r="J13">
-        <v>0.09004486486193269</v>
+        <v>0.006758791659251819</v>
       </c>
       <c r="K13">
-        <v>1.000217806012907</v>
+        <v>1.000347352487416</v>
       </c>
       <c r="L13">
-        <v>-0.3338916515555381</v>
+        <v>-0.05013516730915525</v>
       </c>
       <c r="M13">
-        <v>0.999958967273145</v>
+        <v>1.00032110846879</v>
       </c>
       <c r="N13">
-        <v>-0.3521134852694893</v>
+        <v>-0.05029004695945733</v>
       </c>
       <c r="O13">
-        <v>36.01794594477307</v>
+        <v>13.51758331850364</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9199363396549192</v>
+        <v>0.5425565731412985</v>
       </c>
       <c r="C14">
-        <v>-0.9194063141521771</v>
+        <v>1.783727381659216e-05</v>
       </c>
       <c r="D14">
-        <v>-0.9195340994682756</v>
+        <v>-0.5424866191058135</v>
       </c>
       <c r="E14">
-        <v>0.9194477615290735</v>
+        <v>-1.062911468571726e-05</v>
       </c>
       <c r="F14">
-        <v>0.0004022401866435876</v>
+        <v>6.995403548493151e-05</v>
       </c>
       <c r="G14">
-        <v>4.144737689637523e-05</v>
+        <v>7.208159130874903e-06</v>
       </c>
       <c r="H14">
-        <v>0.06826721256901028</v>
+        <v>0.02846923702294294</v>
       </c>
       <c r="I14">
-        <v>0.06826721256901029</v>
+        <v>0.02846923702294295</v>
       </c>
       <c r="J14">
-        <v>0.06826721256901029</v>
+        <v>0.02846923702294295</v>
       </c>
       <c r="K14">
-        <v>0.999958967273145</v>
+        <v>1.000266879683549</v>
       </c>
       <c r="L14">
-        <v>-0.3521134852694893</v>
+        <v>-0.05250196523244022</v>
       </c>
       <c r="M14">
-        <v>0.9997627817902098</v>
+        <v>1.000137910839829</v>
       </c>
       <c r="N14">
-        <v>-0.365933886489018</v>
+        <v>-0.0532630260784155</v>
       </c>
       <c r="O14">
-        <v>27.30688502760412</v>
+        <v>28.46923702294295</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3351446657911238</v>
+        <v>0.4144926621701933</v>
       </c>
       <c r="C15">
-        <v>-0.3350759414148195</v>
+        <v>9.558805388912848e-06</v>
       </c>
       <c r="D15">
-        <v>-0.3350988706571132</v>
+        <v>-0.4144518237996481</v>
       </c>
       <c r="E15">
-        <v>0.3350806602078252</v>
+        <v>-5.350764044408194e-06</v>
       </c>
       <c r="F15">
-        <v>4.579513401059554e-05</v>
+        <v>4.083837054519313e-05</v>
       </c>
       <c r="G15">
-        <v>4.718793005675792e-06</v>
+        <v>4.208041344504654e-06</v>
       </c>
       <c r="H15">
-        <v>0.02488012188742259</v>
+        <v>0.02175222287310463</v>
       </c>
       <c r="I15">
-        <v>0.02488012188742258</v>
+        <v>0.02175222287310463</v>
       </c>
       <c r="J15">
-        <v>0.02488012188742259</v>
+        <v>0.02175222287310463</v>
       </c>
       <c r="K15">
-        <v>0.9997627817902098</v>
+        <v>1.000137910839829</v>
       </c>
       <c r="L15">
-        <v>-0.365933886489018</v>
+        <v>-0.0532630260784155</v>
       </c>
       <c r="M15">
-        <v>0.9997015036504466</v>
+        <v>1.000039370908954</v>
       </c>
       <c r="N15">
-        <v>-0.3702521226481452</v>
+        <v>-0.05384463541008011</v>
       </c>
       <c r="O15">
-        <v>9.952048754969036</v>
+        <v>21.75222287310463</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.4999215977523443</v>
+        <v>0.2445288133263988</v>
       </c>
       <c r="C16">
-        <v>-0.2742822511688791</v>
+        <v>4.207824291385307e-06</v>
       </c>
       <c r="D16">
-        <v>0.4999877847180357</v>
+        <v>-0.2445145972294747</v>
       </c>
       <c r="E16">
-        <v>0.2742890711640057</v>
+        <v>-2.742978294458865e-06</v>
       </c>
       <c r="F16">
-        <v>6.618696569138383e-05</v>
+        <v>1.421609692411896e-05</v>
       </c>
       <c r="G16">
-        <v>6.819995126583489e-06</v>
+        <v>1.464845996926442e-06</v>
       </c>
       <c r="H16">
-        <v>0.0299108718588571</v>
+        <v>0.01283392891832743</v>
       </c>
       <c r="I16">
-        <v>0.0299108718588571</v>
+        <v>0.01283392891832743</v>
       </c>
       <c r="J16">
-        <v>0.0299108718588571</v>
+        <v>0.01283392891832743</v>
       </c>
       <c r="K16">
-        <v>1.00060131338944</v>
+        <v>1.000039370908954</v>
       </c>
       <c r="L16">
-        <v>-0.3238396541049574</v>
+        <v>-0.05384463541008011</v>
       </c>
       <c r="M16">
-        <v>1.000708894503957</v>
+        <v>0.999981231840398</v>
       </c>
       <c r="N16">
-        <v>-0.3264375247688985</v>
+        <v>-0.05418782750570611</v>
       </c>
       <c r="O16">
-        <v>11.96434874354284</v>
+        <v>25.66785783665487</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2518579092688487</v>
+        <v>0.1271462853889885</v>
       </c>
       <c r="C17">
-        <v>-0.2518063096084017</v>
+        <v>1.551616741626979e-06</v>
       </c>
       <c r="D17">
-        <v>-0.2518320911432617</v>
+        <v>-0.1271429905715393</v>
       </c>
       <c r="E17">
-        <v>0.2518089699432402</v>
+        <v>-1.212114262366876e-06</v>
       </c>
       <c r="F17">
-        <v>2.581812558699603e-05</v>
+        <v>3.294817449261966e-06</v>
       </c>
       <c r="G17">
-        <v>2.66033483847794e-06</v>
+        <v>3.395024792601027e-07</v>
       </c>
       <c r="H17">
-        <v>0.01868121810990095</v>
+        <v>0.006673574532644632</v>
       </c>
       <c r="I17">
-        <v>0.01868121810990096</v>
+        <v>0.006673574532644632</v>
       </c>
       <c r="J17">
-        <v>0.01868121810990096</v>
+        <v>0.006673574532644632</v>
       </c>
       <c r="K17">
-        <v>1.000616361377519</v>
+        <v>0.999981231840398</v>
       </c>
       <c r="L17">
-        <v>-0.3360458120600212</v>
+        <v>-0.05418782750570611</v>
       </c>
       <c r="M17">
-        <v>1.000570350211631</v>
+        <v>0.9999553187019146</v>
       </c>
       <c r="N17">
-        <v>-0.3392853407102217</v>
+        <v>-0.05434080294980379</v>
       </c>
       <c r="O17">
-        <v>7.472487243960383</v>
+        <v>13.34714906528926</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2714518392392419</v>
+        <v>-0.02999636342633331</v>
       </c>
       <c r="C18">
-        <v>-0.2713948552867267</v>
+        <v>1.574628657213616e-06</v>
       </c>
       <c r="D18">
-        <v>-0.2714218491669969</v>
+        <v>0.02999654673737548</v>
       </c>
       <c r="E18">
-        <v>0.2713979455046333</v>
+        <v>-1.55574003766133e-06</v>
       </c>
       <c r="F18">
-        <v>2.999007224507855e-05</v>
+        <v>1.83311042168538e-07</v>
       </c>
       <c r="G18">
-        <v>3.090217906565051e-06</v>
+        <v>1.888861955228607e-08</v>
       </c>
       <c r="H18">
-        <v>0.020134070848595</v>
+        <v>0.001574117509484998</v>
       </c>
       <c r="I18">
-        <v>0.02013407084859501</v>
+        <v>0.001574117509484998</v>
       </c>
       <c r="J18">
-        <v>0.02013407084859501</v>
+        <v>0.001574117509484998</v>
       </c>
       <c r="K18">
-        <v>1.00063870437566</v>
+        <v>1.000179951820686</v>
       </c>
       <c r="L18">
-        <v>-0.3370289774514505</v>
+        <v>-0.05505892669339404</v>
       </c>
       <c r="M18">
-        <v>1.000589114866041</v>
+        <v>1.000186063996368</v>
       </c>
       <c r="N18">
-        <v>-0.3405203740984546</v>
+        <v>-0.05502282955430138</v>
       </c>
       <c r="O18">
-        <v>8.053628339438003</v>
+        <v>3.148235018969996</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.533179700230165</v>
+        <v>0.1790774160885996</v>
       </c>
       <c r="C19">
-        <v>0.01031469045637617</v>
+        <v>2.725639642374872e-06</v>
       </c>
       <c r="D19">
-        <v>-6.514535814355661</v>
+        <v>-0.1790708817437515</v>
       </c>
       <c r="E19">
-        <v>-0.004517970367703197</v>
+        <v>-2.052331845974446e-06</v>
       </c>
       <c r="F19">
-        <v>0.01864388587450438</v>
+        <v>6.534344848152518e-06</v>
       </c>
       <c r="G19">
-        <v>0.00579672008867297</v>
+        <v>6.733077964004262e-07</v>
       </c>
       <c r="H19">
-        <v>0.342622296775529</v>
+        <v>0.009398182231320412</v>
       </c>
       <c r="I19">
-        <v>0.342622296775529</v>
+        <v>0.009398182231320412</v>
       </c>
       <c r="J19">
-        <v>0.342622296775529</v>
+        <v>0.009398182231320412</v>
       </c>
       <c r="K19">
-        <v>1.00082054181485</v>
+        <v>1.00010050156249</v>
       </c>
       <c r="L19">
-        <v>-0.2388493521489393</v>
+        <v>-0.05739628895781759</v>
       </c>
       <c r="M19">
-        <v>0.9979634733134436</v>
+        <v>1.000064008906494</v>
       </c>
       <c r="N19">
-        <v>-0.2895729402305681</v>
+        <v>-0.05761168967664333</v>
       </c>
       <c r="O19">
-        <v>68.5244593551058</v>
+        <v>18.79636446264082</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.676656025862326</v>
+        <v>0.1153682220208884</v>
       </c>
       <c r="C20">
-        <v>0.003105243433004053</v>
+        <v>2.4016119144938e-06</v>
       </c>
       <c r="D20">
-        <v>-4.667047863735067</v>
+        <v>-0.115365509977131</v>
       </c>
       <c r="E20">
-        <v>-0.000117892684709877</v>
+        <v>-2.122159230485016e-06</v>
       </c>
       <c r="F20">
-        <v>0.009608162127259234</v>
+        <v>2.712043757444049e-06</v>
       </c>
       <c r="G20">
-        <v>0.002987350748294176</v>
+        <v>2.794526840087832e-07</v>
       </c>
       <c r="H20">
-        <v>0.2459617449886348</v>
+        <v>0.006054679829948792</v>
       </c>
       <c r="I20">
-        <v>0.2459617449886348</v>
+        <v>0.006054679829948793</v>
       </c>
       <c r="J20">
-        <v>0.2459617449886348</v>
+        <v>0.006054679829948793</v>
       </c>
       <c r="K20">
-        <v>0.9979634733134436</v>
+        <v>1.000096032773798</v>
       </c>
       <c r="L20">
-        <v>-0.2895729402305681</v>
+        <v>-0.05752775891066191</v>
       </c>
       <c r="M20">
-        <v>0.995912944042469</v>
+        <v>1.00007252274969</v>
       </c>
       <c r="N20">
-        <v>-0.3261693151916487</v>
+        <v>-0.05766651983366067</v>
       </c>
       <c r="O20">
-        <v>49.19234899772695</v>
+        <v>12.10935965989759</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.837906536390672</v>
+        <v>4.264280299975537</v>
       </c>
       <c r="C21">
-        <v>0.001421555558592729</v>
+        <v>0.00443998321525328</v>
       </c>
       <c r="D21">
-        <v>-1.836422596261423</v>
+        <v>-4.256334593853025</v>
       </c>
       <c r="E21">
-        <v>-0.0009601718312137325</v>
+        <v>-0.001969519996957902</v>
       </c>
       <c r="F21">
-        <v>0.001483940129249017</v>
+        <v>0.007945706122511886</v>
       </c>
       <c r="G21">
-        <v>0.0004613837273789965</v>
+        <v>0.002470463218295378</v>
       </c>
       <c r="H21">
-        <v>0.09666195929015851</v>
+        <v>0.2236730466556666</v>
       </c>
       <c r="I21">
-        <v>0.09666195929015854</v>
+        <v>0.2236730466556666</v>
       </c>
       <c r="J21">
-        <v>0.09666195929015854</v>
+        <v>0.2236730466556666</v>
       </c>
       <c r="K21">
-        <v>0.9979634733134436</v>
+        <v>1.000642658975816</v>
       </c>
       <c r="L21">
-        <v>-0.2895729402305681</v>
+        <v>-0.04145313519285804</v>
       </c>
       <c r="M21">
-        <v>0.9971575478141583</v>
+        <v>0.9987777100016092</v>
       </c>
       <c r="N21">
-        <v>-0.3039321440891948</v>
+        <v>-0.07459738537601657</v>
       </c>
       <c r="O21">
-        <v>19.33239185803171</v>
+        <v>74.55768221855556</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-2.832917167193359</v>
+        <v>3.087702884142339</v>
       </c>
       <c r="C22">
-        <v>0.0001292328814282533</v>
+        <v>0.001358659236011847</v>
       </c>
       <c r="D22">
-        <v>2.836457332697461</v>
+        <v>-3.083521385360379</v>
       </c>
       <c r="E22">
-        <v>0.0009714683689969038</v>
+        <v>-5.85559124180483e-05</v>
       </c>
       <c r="F22">
-        <v>0.003540165504101633</v>
+        <v>0.004181498781960169</v>
       </c>
       <c r="G22">
-        <v>0.001100701250425157</v>
+        <v>0.001300103323593799</v>
       </c>
       <c r="H22">
-        <v>0.1492997866527563</v>
+        <v>0.1622607172808589</v>
       </c>
       <c r="I22">
-        <v>0.1492997866527563</v>
+        <v>0.162260717280859</v>
       </c>
       <c r="J22">
-        <v>0.1492997866527563</v>
+        <v>0.162260717280859</v>
       </c>
       <c r="K22">
-        <v>0.995912944042469</v>
+        <v>0.9987777100016092</v>
       </c>
       <c r="L22">
-        <v>-0.3261693151916487</v>
+        <v>-0.07459738537601657</v>
       </c>
       <c r="M22">
-        <v>0.9971575478141583</v>
+        <v>0.9974250262979203</v>
       </c>
       <c r="N22">
-        <v>-0.3039321440891948</v>
+        <v>-0.0987207811461851</v>
       </c>
       <c r="O22">
-        <v>29.85995733055126</v>
+        <v>54.08690576028633</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.509274982426</v>
+        <v>1.168648349352508</v>
       </c>
       <c r="C23">
-        <v>-5.464724997138758</v>
+        <v>0.0006164087864052226</v>
       </c>
       <c r="D23">
-        <v>-4.5031655687621</v>
+        <v>-1.168049346756718</v>
       </c>
       <c r="E23">
-        <v>5.468262418473131</v>
+        <v>-0.0004301680851074205</v>
       </c>
       <c r="F23">
-        <v>0.006109413663899943</v>
+        <v>0.0005990025957898215</v>
       </c>
       <c r="G23">
-        <v>0.003537421334373292</v>
+        <v>0.000186240701297802</v>
       </c>
       <c r="H23">
-        <v>0.3715595319058572</v>
+        <v>0.06141320410359217</v>
       </c>
       <c r="I23">
-        <v>0.371559531905857</v>
+        <v>0.06141320410359218</v>
       </c>
       <c r="J23">
-        <v>0.3715595319058572</v>
+        <v>0.06141320410359218</v>
       </c>
       <c r="K23">
-        <v>1.00082054181485</v>
+        <v>0.9987777100016092</v>
       </c>
       <c r="L23">
-        <v>-0.2388493521489393</v>
+        <v>-0.07459738537601657</v>
       </c>
       <c r="M23">
-        <v>1.000657175473806</v>
+        <v>0.9982657051637506</v>
       </c>
       <c r="N23">
-        <v>-0.2951734991781508</v>
+        <v>-0.08371746375452957</v>
       </c>
       <c r="O23">
-        <v>74.31190638117144</v>
+        <v>20.47106803453073</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.503167115006434</v>
+        <v>-1.916455626425421</v>
       </c>
       <c r="C24">
-        <v>-5.468261539328833</v>
+        <v>6.56452453280899e-05</v>
       </c>
       <c r="D24">
-        <v>-4.49705770081765</v>
+        <v>1.918070860923087</v>
       </c>
       <c r="E24">
-        <v>5.471798960967122</v>
+        <v>0.0004365602671684773</v>
       </c>
       <c r="F24">
-        <v>0.006109414188784079</v>
+        <v>0.001615234497665874</v>
       </c>
       <c r="G24">
-        <v>0.003537421638289295</v>
+        <v>0.0005022055124965672</v>
       </c>
       <c r="H24">
-        <v>0.3715595478669759</v>
+        <v>0.1008475135549421</v>
       </c>
       <c r="I24">
-        <v>0.371559547866976</v>
+        <v>0.1008475135549421</v>
       </c>
       <c r="J24">
-        <v>0.371559547866976</v>
+        <v>0.1008475135549421</v>
       </c>
       <c r="K24">
-        <v>1.000657175473806</v>
+        <v>0.9974250262979203</v>
       </c>
       <c r="L24">
-        <v>-0.2951734991781508</v>
+        <v>-0.0987207811461851</v>
       </c>
       <c r="M24">
-        <v>1.000494776203906</v>
+        <v>0.9982657051637506</v>
       </c>
       <c r="N24">
-        <v>-0.3515159857222125</v>
+        <v>-0.08371746375452957</v>
       </c>
       <c r="O24">
-        <v>74.31190957339521</v>
+        <v>33.61583785164738</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1549,46 +1549,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.897192959971116</v>
+        <v>1.76225787548538</v>
       </c>
       <c r="C25">
-        <v>-4.871933951480213</v>
+        <v>0.003156645198415445</v>
       </c>
       <c r="D25">
-        <v>-3.892452480502431</v>
+        <v>-1.761879765297583</v>
       </c>
       <c r="E25">
-        <v>4.874678744046279</v>
+        <v>-0.00293771501646308</v>
       </c>
       <c r="F25">
-        <v>0.004740479468684722</v>
+        <v>0.0003781101877975424</v>
       </c>
       <c r="G25">
-        <v>0.002744792566065968</v>
+        <v>0.0002189301819523646</v>
       </c>
       <c r="H25">
-        <v>0.3272953054889573</v>
+        <v>0.09243529481534847</v>
       </c>
       <c r="I25">
-        <v>0.3272953054889572</v>
+        <v>0.09243529481534847</v>
       </c>
       <c r="J25">
-        <v>0.3272953054889573</v>
+        <v>0.09243529481534847</v>
       </c>
       <c r="K25">
-        <v>1.000494776203906</v>
+        <v>1.000642658975816</v>
       </c>
       <c r="L25">
-        <v>-0.3515159857222125</v>
+        <v>-0.04145313519285804</v>
       </c>
       <c r="M25">
-        <v>1.000364009045022</v>
+        <v>1.000427746698841</v>
       </c>
       <c r="N25">
-        <v>-0.4012646286587875</v>
+        <v>-0.04855062981596713</v>
       </c>
       <c r="O25">
-        <v>65.45906109779146</v>
+        <v>73.94823585227877</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1596,46 +1596,46 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3.192292941785718</v>
+        <v>1.76188535830444</v>
       </c>
       <c r="C26">
-        <v>-3.676383650049796</v>
+        <v>0.00294095087379538</v>
       </c>
       <c r="D26">
-        <v>-3.189405003001074</v>
+        <v>-1.761507245713741</v>
       </c>
       <c r="E26">
-        <v>3.678055800084346</v>
+        <v>-0.002722019300535286</v>
       </c>
       <c r="F26">
-        <v>0.00288793878464455</v>
+        <v>0.0003781125906989757</v>
       </c>
       <c r="G26">
-        <v>0.001672150034550235</v>
+        <v>0.0002189315732600938</v>
       </c>
       <c r="H26">
-        <v>0.2554598382072717</v>
+        <v>0.09243558852937295</v>
       </c>
       <c r="I26">
-        <v>0.2554598382072718</v>
+        <v>0.09243558852937296</v>
       </c>
       <c r="J26">
-        <v>0.2554598382072718</v>
+        <v>0.09243558852937296</v>
       </c>
       <c r="K26">
-        <v>1.000364009045022</v>
+        <v>1.000427746698841</v>
       </c>
       <c r="L26">
-        <v>-0.4012646286587875</v>
+        <v>-0.04855062981596713</v>
       </c>
       <c r="M26">
-        <v>1.000234617364404</v>
+        <v>1.000212848870098</v>
       </c>
       <c r="N26">
-        <v>-0.4398312948719569</v>
+        <v>-0.05565117438269421</v>
       </c>
       <c r="O26">
-        <v>51.09196764145436</v>
+        <v>73.94847082349837</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1643,46 +1643,46 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.890105214878641</v>
+        <v>1.561581970974487</v>
       </c>
       <c r="C27">
-        <v>-3.378762654311816</v>
+        <v>0.002727466033514267</v>
       </c>
       <c r="D27">
-        <v>-2.887696355572614</v>
+        <v>-1.561284816597549</v>
       </c>
       <c r="E27">
-        <v>3.380157411774549</v>
+        <v>-0.002555410204524423</v>
       </c>
       <c r="F27">
-        <v>0.002408859306026745</v>
+        <v>0.0002971543769383356</v>
       </c>
       <c r="G27">
-        <v>0.001394757462732876</v>
+        <v>0.0001720558289898446</v>
       </c>
       <c r="H27">
-        <v>0.2333105398682645</v>
+        <v>0.0819444806184892</v>
       </c>
       <c r="I27">
-        <v>0.2333105398682645</v>
+        <v>0.0819444806184892</v>
       </c>
       <c r="J27">
-        <v>0.2333105398682645</v>
+        <v>0.0819444806184892</v>
       </c>
       <c r="K27">
-        <v>1.000234617364404</v>
+        <v>1.000212848870098</v>
       </c>
       <c r="L27">
-        <v>-0.4398312948719569</v>
+        <v>-0.05565117438269421</v>
       </c>
       <c r="M27">
-        <v>1.000120999489424</v>
+        <v>1.000022331896907</v>
       </c>
       <c r="N27">
-        <v>-0.4751075138340532</v>
+        <v>-0.0619461869596874</v>
       </c>
       <c r="O27">
-        <v>46.66210797365291</v>
+        <v>65.55558449479136</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1690,46 +1690,46 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.693857441577991</v>
+        <v>1.121613348960552</v>
       </c>
       <c r="C28">
-        <v>-2.18842764349049</v>
+        <v>0.002302889742362554</v>
       </c>
       <c r="D28">
-        <v>-1.692924042721404</v>
+        <v>-1.121459991515213</v>
       </c>
       <c r="E28">
-        <v>2.188968092248818</v>
+        <v>-0.002214094003725033</v>
       </c>
       <c r="F28">
-        <v>0.0009333988565867202</v>
+        <v>0.0001533574453391751</v>
       </c>
       <c r="G28">
-        <v>0.0005404487583282602</v>
+        <v>8.879573863752139e-05</v>
       </c>
       <c r="H28">
-        <v>0.1452319850530311</v>
+        <v>0.05886824298630958</v>
       </c>
       <c r="I28">
-        <v>0.1452319850530311</v>
+        <v>0.05886824298630957</v>
       </c>
       <c r="J28">
-        <v>0.1452319850530311</v>
+        <v>0.05886824298630958</v>
       </c>
       <c r="K28">
-        <v>1.000120999489424</v>
+        <v>1.000022331896907</v>
       </c>
       <c r="L28">
-        <v>-0.4751075138340532</v>
+        <v>-0.0619461869596874</v>
       </c>
       <c r="M28">
-        <v>1.000069057827454</v>
+        <v>0.9998854406487897</v>
       </c>
       <c r="N28">
-        <v>-0.4972397133857588</v>
+        <v>-0.06646668672840234</v>
       </c>
       <c r="O28">
-        <v>29.04639701060623</v>
+        <v>47.09459438904766</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1737,46 +1737,46 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.294219256859313</v>
+        <v>1.021828895044664</v>
       </c>
       <c r="C29">
-        <v>-1.790277323481153</v>
+        <v>0.002222704791107168</v>
       </c>
       <c r="D29">
-        <v>-1.293624410906479</v>
+        <v>-1.021701575810663</v>
       </c>
       <c r="E29">
-        <v>1.790621746183557</v>
+        <v>-0.002148985478680989</v>
       </c>
       <c r="F29">
-        <v>0.0005948459528342109</v>
+        <v>0.0001273192340005558</v>
       </c>
       <c r="G29">
-        <v>0.0003444227024038682</v>
+        <v>7.371931242617941e-05</v>
       </c>
       <c r="H29">
-        <v>0.1159393594691178</v>
+        <v>0.05363837962585805</v>
       </c>
       <c r="I29">
-        <v>0.1159393594691178</v>
+        <v>0.05363837962585805</v>
       </c>
       <c r="J29">
-        <v>0.1159393594691178</v>
+        <v>0.05363837962585805</v>
       </c>
       <c r="K29">
-        <v>1.000069057827454</v>
+        <v>0.9998854406487897</v>
       </c>
       <c r="L29">
-        <v>-0.4972397133857588</v>
+        <v>-0.06646668672840234</v>
       </c>
       <c r="M29">
-        <v>1.00003770072859</v>
+        <v>0.9997607018161655</v>
       </c>
       <c r="N29">
-        <v>-0.514976928361789</v>
+        <v>-0.07058522621345802</v>
       </c>
       <c r="O29">
-        <v>23.18787189382355</v>
+        <v>42.91070370068644</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1784,46 +1784,46 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8951322209110935</v>
+        <v>0.4457423526004632</v>
       </c>
       <c r="C30">
-        <v>-1.392146616607697</v>
+        <v>0.0008168475540562292</v>
       </c>
       <c r="D30">
-        <v>-0.8947982963851223</v>
+        <v>-0.4457181192630288</v>
       </c>
       <c r="E30">
-        <v>1.392339962779232</v>
+        <v>-0.0008028161707583826</v>
       </c>
       <c r="F30">
-        <v>0.000333924525971141</v>
+        <v>2.423333743434286e-05</v>
       </c>
       <c r="G30">
-        <v>0.0001933461715351026</v>
+        <v>1.403138329784655e-05</v>
       </c>
       <c r="H30">
-        <v>0.0868665953693893</v>
+        <v>0.02340104522633618</v>
       </c>
       <c r="I30">
-        <v>0.08686659536938929</v>
+        <v>0.02340104522633618</v>
       </c>
       <c r="J30">
-        <v>0.0868665953693893</v>
+        <v>0.02340104522633618</v>
       </c>
       <c r="K30">
-        <v>1.00003770072859</v>
+        <v>0.9997607018161655</v>
       </c>
       <c r="L30">
-        <v>-0.514976928361789</v>
+        <v>-0.07058522621345802</v>
       </c>
       <c r="M30">
-        <v>1.000026870643594</v>
+        <v>0.9997062915843851</v>
       </c>
       <c r="N30">
-        <v>-0.5283202439965178</v>
+        <v>-0.07238320551730887</v>
       </c>
       <c r="O30">
-        <v>17.37331907387786</v>
+        <v>23.40104522633618</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1831,46 +1831,46 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9965104116087945</v>
+        <v>0.3463915591136012</v>
       </c>
       <c r="C31">
-        <v>-0.9959806686566741</v>
+        <v>0.0008128296307398366</v>
       </c>
       <c r="D31">
-        <v>-0.9962684337885487</v>
+        <v>-0.346376922916999</v>
       </c>
       <c r="E31">
-        <v>0.9961207766197084</v>
+        <v>-0.0008043551032380317</v>
       </c>
       <c r="F31">
-        <v>0.00024197782024582</v>
+        <v>1.463619660219129e-05</v>
       </c>
       <c r="G31">
-        <v>0.0001401079630343194</v>
+        <v>8.474527501804892e-06</v>
       </c>
       <c r="H31">
-        <v>0.07394629538201945</v>
+        <v>0.01818623331383948</v>
       </c>
       <c r="I31">
-        <v>0.07394629538201945</v>
+        <v>0.01818623331383948</v>
       </c>
       <c r="J31">
-        <v>0.07394629538201945</v>
+        <v>0.01818623331383948</v>
       </c>
       <c r="K31">
-        <v>1.000026870643594</v>
+        <v>0.9997062915843851</v>
       </c>
       <c r="L31">
-        <v>-0.5283202439965178</v>
+        <v>-0.07238320551730887</v>
       </c>
       <c r="M31">
-        <v>0.9999757097909894</v>
+        <v>0.9996639938027631</v>
       </c>
       <c r="N31">
-        <v>-0.5393072289565728</v>
+        <v>-0.07377932685885918</v>
       </c>
       <c r="O31">
-        <v>14.78925907640389</v>
+        <v>18.18623331383948</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1878,46 +1878,46 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.7005208359640448</v>
+        <v>0.1971526475853642</v>
       </c>
       <c r="C32">
-        <v>-1.198659175124953</v>
+        <v>0.0008146842389091464</v>
       </c>
       <c r="D32">
-        <v>-0.6998901381585643</v>
+        <v>-0.1971479058137116</v>
       </c>
       <c r="E32">
-        <v>1.198812468072298</v>
+        <v>-0.0008119386981536077</v>
       </c>
       <c r="F32">
-        <v>0.000630697805480529</v>
+        <v>4.741771652633231e-06</v>
       </c>
       <c r="G32">
-        <v>0.0001532929473453404</v>
+        <v>2.745540755538615e-06</v>
       </c>
       <c r="H32">
-        <v>0.07284291489771541</v>
+        <v>0.01035139685801466</v>
       </c>
       <c r="I32">
-        <v>0.07284291489771542</v>
+        <v>0.01035139685801466</v>
       </c>
       <c r="J32">
-        <v>0.07284291489771542</v>
+        <v>0.01035139685801466</v>
       </c>
       <c r="K32">
-        <v>1.000364009045022</v>
+        <v>0.9996639938027631</v>
       </c>
       <c r="L32">
-        <v>-0.4012646286587875</v>
+        <v>-0.07377932685885918</v>
       </c>
       <c r="M32">
-        <v>1.000230172644269</v>
+        <v>0.9996398935944936</v>
       </c>
       <c r="N32">
-        <v>-0.4269321340013721</v>
+        <v>-0.07457153702564159</v>
       </c>
       <c r="O32">
-        <v>14.56858297954308</v>
+        <v>10.35139685801466</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1925,46 +1925,46 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.3001169491239237</v>
+        <v>0.2980916681250144</v>
       </c>
       <c r="C33">
-        <v>-0.7992292653971242</v>
+        <v>-1.435138585587607e-05</v>
       </c>
       <c r="D33">
-        <v>-0.2998784037876209</v>
+        <v>-0.2980808276426012</v>
       </c>
       <c r="E33">
-        <v>0.7992872445392105</v>
+        <v>2.062815084066745e-05</v>
       </c>
       <c r="F33">
-        <v>0.0002385453363027978</v>
+        <v>1.084048241312141e-05</v>
       </c>
       <c r="G33">
-        <v>5.797914208627297e-05</v>
+        <v>6.276764984791379e-06</v>
       </c>
       <c r="H33">
-        <v>0.04479836062609727</v>
+        <v>0.01565139116936224</v>
       </c>
       <c r="I33">
-        <v>0.04479836062609727</v>
+        <v>0.01565139116936224</v>
       </c>
       <c r="J33">
-        <v>0.04479836062609727</v>
+        <v>0.01565139116936224</v>
       </c>
       <c r="K33">
-        <v>1.000230172644269</v>
+        <v>0.9996398935944936</v>
       </c>
       <c r="L33">
-        <v>-0.4269321340013721</v>
+        <v>-0.07457153702564159</v>
       </c>
       <c r="M33">
-        <v>1.000195557277598</v>
+        <v>0.9996035416542497</v>
       </c>
       <c r="N33">
-        <v>-0.4432882713615922</v>
+        <v>-0.07577812936923634</v>
       </c>
       <c r="O33">
-        <v>8.959672125219456</v>
+        <v>31.30278233872447</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1972,46 +1972,46 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.3999332926294056</v>
+        <v>0.4398590679826856</v>
       </c>
       <c r="C34">
-        <v>-0.3997444994479147</v>
+        <v>8.535093918885195e-05</v>
       </c>
       <c r="D34">
-        <v>-0.3997734813458418</v>
+        <v>-0.4397957178132322</v>
       </c>
       <c r="E34">
-        <v>0.3997709907019908</v>
+        <v>-6.995349511030354e-05</v>
       </c>
       <c r="F34">
-        <v>0.0001598112835637933</v>
+        <v>6.335016945335781e-05</v>
       </c>
       <c r="G34">
-        <v>2.649125407611086e-05</v>
+        <v>1.53974440785484e-05</v>
       </c>
       <c r="H34">
-        <v>0.02967302455460987</v>
+        <v>0.02308609863328278</v>
       </c>
       <c r="I34">
-        <v>0.02967302455460987</v>
+        <v>0.02308609863328278</v>
       </c>
       <c r="J34">
-        <v>0.02967302455460987</v>
+        <v>0.02308609863328278</v>
       </c>
       <c r="K34">
-        <v>1.000195557277598</v>
+        <v>1.000022331896907</v>
       </c>
       <c r="L34">
-        <v>-0.4432882713615922</v>
+        <v>-0.0619461869596874</v>
       </c>
       <c r="M34">
-        <v>1.000028779626601</v>
+        <v>0.9998782987164905</v>
       </c>
       <c r="N34">
-        <v>-0.4566365539187149</v>
+        <v>-0.06395053621910325</v>
       </c>
       <c r="O34">
-        <v>5.934604910921975</v>
+        <v>46.17219726656556</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2019,46 +2019,46 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.3999437062859484</v>
+        <v>0.2599209129548254</v>
       </c>
       <c r="C35">
-        <v>-0.3997549034011703</v>
+        <v>1.153953438445663e-05</v>
       </c>
       <c r="D35">
-        <v>-0.3997838866817023</v>
+        <v>-0.2598987856649418</v>
       </c>
       <c r="E35">
-        <v>0.3997813960345314</v>
+        <v>-6.161431823222278e-06</v>
       </c>
       <c r="F35">
-        <v>0.0001598196042460476</v>
+        <v>2.212728988360002e-05</v>
       </c>
       <c r="G35">
-        <v>2.649263336113039e-05</v>
+        <v>5.378102561234355e-06</v>
       </c>
       <c r="H35">
-        <v>0.02967379701757731</v>
+        <v>0.0136439704169277</v>
       </c>
       <c r="I35">
-        <v>0.02967379701757731</v>
+        <v>0.01364397041692771</v>
       </c>
       <c r="J35">
-        <v>0.02967379701757731</v>
+        <v>0.01364397041692771</v>
       </c>
       <c r="K35">
-        <v>1.000195557277598</v>
+        <v>0.9998782987164905</v>
       </c>
       <c r="L35">
-        <v>-0.4432882713615922</v>
+        <v>-0.06395053621910325</v>
       </c>
       <c r="M35">
-        <v>1.000028775284273</v>
+        <v>0.9997931775163906</v>
       </c>
       <c r="N35">
-        <v>-0.4566369014086016</v>
+        <v>-0.06513594496085812</v>
       </c>
       <c r="O35">
-        <v>5.934759403515462</v>
+        <v>27.28794083385541</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2066,46 +2066,46 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.3999997949559278</v>
+        <v>0.0999693654411196</v>
       </c>
       <c r="C36">
-        <v>-0.399811925303415</v>
+        <v>-8.213678656744799e-06</v>
       </c>
       <c r="D36">
-        <v>-0.3998399412031454</v>
+        <v>-0.09996436635384506</v>
       </c>
       <c r="E36">
-        <v>0.3998384235974375</v>
+        <v>9.042356633579682e-06</v>
       </c>
       <c r="F36">
-        <v>0.0001598537527824351</v>
+        <v>4.999087274540348e-06</v>
       </c>
       <c r="G36">
-        <v>2.649829402245896e-05</v>
+        <v>8.286779768348831e-07</v>
       </c>
       <c r="H36">
-        <v>0.029676967037356</v>
+        <v>0.005248116359637903</v>
       </c>
       <c r="I36">
-        <v>0.029676967037356</v>
+        <v>0.005248116359637903</v>
       </c>
       <c r="J36">
-        <v>0.029676967037356</v>
+        <v>0.005248116359637903</v>
       </c>
       <c r="K36">
-        <v>1.000230172644269</v>
+        <v>0.9997931775163906</v>
       </c>
       <c r="L36">
-        <v>-0.4269321340013721</v>
+        <v>-0.06513594496085812</v>
       </c>
       <c r="M36">
-        <v>1.00006337311547</v>
+        <v>0.9997431823825221</v>
       </c>
       <c r="N36">
-        <v>-0.44028173968584</v>
+        <v>-0.0656111471293572</v>
       </c>
       <c r="O36">
-        <v>5.935393407471199</v>
+        <v>10.4962327192758</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2113,46 +2113,46 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.194910860891425</v>
+        <v>0.1599781948497982</v>
       </c>
       <c r="C37">
-        <v>-1.192812424461103</v>
+        <v>-6.920230010716875e-06</v>
       </c>
       <c r="D37">
-        <v>-1.193977663966542</v>
+        <v>-0.1599653928319053</v>
       </c>
       <c r="E37">
-        <v>1.193039240704677</v>
+        <v>9.042367453864088e-06</v>
       </c>
       <c r="F37">
-        <v>0.0009331969248833616</v>
+        <v>1.280201789291557e-05</v>
       </c>
       <c r="G37">
-        <v>0.0002268162435736798</v>
+        <v>2.122137443147213e-06</v>
       </c>
       <c r="H37">
-        <v>0.08860603560504797</v>
+        <v>0.008398414612551867</v>
       </c>
       <c r="I37">
-        <v>0.08860603560504797</v>
+        <v>0.008398414612551863</v>
       </c>
       <c r="J37">
-        <v>0.08860603560504797</v>
+        <v>0.008398414612551867</v>
       </c>
       <c r="K37">
-        <v>1.000120999489424</v>
+        <v>0.9997931775163906</v>
       </c>
       <c r="L37">
-        <v>-0.4751075138340532</v>
+        <v>-0.06513594496085812</v>
       </c>
       <c r="M37">
-        <v>0.9998248162556539</v>
+        <v>0.9997131712113065</v>
       </c>
       <c r="N37">
-        <v>-0.5029365004218924</v>
+        <v>-0.06589624220955649</v>
       </c>
       <c r="O37">
-        <v>17.72120712100959</v>
+        <v>16.79682922510373</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2160,46 +2160,46 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7969284248674735</v>
+        <v>0.1799638956126375</v>
       </c>
       <c r="C38">
-        <v>-0.7962000068169153</v>
+        <v>-5.841075843177713e-06</v>
       </c>
       <c r="D38">
-        <v>-0.7965127402917601</v>
+        <v>-0.1799476979007724</v>
       </c>
       <c r="E38">
-        <v>0.7963010401695343</v>
+        <v>8.526103401301701e-06</v>
       </c>
       <c r="F38">
-        <v>0.0004156845757133931</v>
+        <v>1.619771186506247e-05</v>
       </c>
       <c r="G38">
-        <v>0.0001010333526190177</v>
+        <v>2.685027558123988e-06</v>
       </c>
       <c r="H38">
-        <v>0.05913690770748974</v>
+        <v>0.00944680456379484</v>
       </c>
       <c r="I38">
-        <v>0.05913690770748975</v>
+        <v>0.00944680456379484</v>
       </c>
       <c r="J38">
-        <v>0.05913690770748975</v>
+        <v>0.00944680456379484</v>
       </c>
       <c r="K38">
-        <v>0.9998248162556539</v>
+        <v>0.9998782987164905</v>
       </c>
       <c r="L38">
-        <v>-0.5029365004218924</v>
+        <v>-0.06395053621910325</v>
       </c>
       <c r="M38">
-        <v>0.9996272499500083</v>
+        <v>0.9997883049244796</v>
       </c>
       <c r="N38">
-        <v>-0.5215184031415864</v>
+        <v>-0.06480562283872006</v>
       </c>
       <c r="O38">
-        <v>11.82738154149795</v>
+        <v>18.89360912758968</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2207,46 +2207,46 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.398527183227284</v>
+        <v>0.5765251999054302</v>
       </c>
       <c r="C39">
-        <v>-0.3983293717575375</v>
+        <v>0.0007923686681258742</v>
       </c>
       <c r="D39">
-        <v>-0.398368379866649</v>
+        <v>-0.5764163105694763</v>
       </c>
       <c r="E39">
-        <v>0.3983556959324075</v>
+        <v>-0.0007659027963599763</v>
       </c>
       <c r="F39">
-        <v>0.000158803360635007</v>
+        <v>0.0001088893359538767</v>
       </c>
       <c r="G39">
-        <v>2.632417486997385e-05</v>
+        <v>2.64658717658979e-05</v>
       </c>
       <c r="H39">
-        <v>0.02957930329864565</v>
+        <v>0.03026699681310991</v>
       </c>
       <c r="I39">
-        <v>0.02957930329864566</v>
+        <v>0.03026699681310991</v>
       </c>
       <c r="J39">
-        <v>0.02957930329864566</v>
+        <v>0.03026699681310991</v>
       </c>
       <c r="K39">
-        <v>0.9998248162556539</v>
+        <v>0.9997607018161655</v>
       </c>
       <c r="L39">
-        <v>-0.5029365004218924</v>
+        <v>-0.07058522621345802</v>
       </c>
       <c r="M39">
-        <v>0.9996585624678918</v>
+        <v>0.9995718135623586</v>
       </c>
       <c r="N39">
-        <v>-0.5162474348873705</v>
+        <v>-0.07320105319415265</v>
       </c>
       <c r="O39">
-        <v>5.915860659729133</v>
+        <v>60.53399362621983</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2254,46 +2254,46 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.3982304484406095</v>
+        <v>0.4280902397356857</v>
       </c>
       <c r="C40">
-        <v>-0.3980318047467555</v>
+        <v>1.112737487458959e-06</v>
       </c>
       <c r="D40">
-        <v>-0.3980718191807195</v>
+        <v>-0.4280301800973901</v>
       </c>
       <c r="E40">
-        <v>0.3980581000616665</v>
+        <v>1.348493336352115e-05</v>
       </c>
       <c r="F40">
-        <v>0.0001586292598899086</v>
+        <v>6.005963829558425e-05</v>
       </c>
       <c r="G40">
-        <v>2.629531491105119e-05</v>
+        <v>1.459767085098011e-05</v>
       </c>
       <c r="H40">
-        <v>0.02956308452670397</v>
+        <v>0.02247853547218037</v>
       </c>
       <c r="I40">
-        <v>0.02956308452670397</v>
+        <v>0.02247853547218038</v>
       </c>
       <c r="J40">
-        <v>0.02956308452670397</v>
+        <v>0.02247853547218038</v>
       </c>
       <c r="K40">
-        <v>0.9996272499500083</v>
+        <v>0.9995718135623586</v>
       </c>
       <c r="L40">
-        <v>-0.5215184031415864</v>
+        <v>-0.07320105319415265</v>
       </c>
       <c r="M40">
-        <v>0.9994610870265628</v>
+        <v>0.9994315774506278</v>
       </c>
       <c r="N40">
-        <v>-0.5348246558590277</v>
+        <v>-0.07515506490752967</v>
       </c>
       <c r="O40">
-        <v>5.912616905340793</v>
+        <v>44.95707094436075</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2301,46 +2301,46 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.3982754223570024</v>
+        <v>0.149128155326041</v>
       </c>
       <c r="C41">
-        <v>-0.3980690327435853</v>
+        <v>-8.413202913232524e-06</v>
       </c>
       <c r="D41">
-        <v>-0.3981168871230483</v>
+        <v>-0.1491170260100512</v>
       </c>
       <c r="E41">
-        <v>0.3980953124722067</v>
+        <v>1.025806349507264e-05</v>
       </c>
       <c r="F41">
-        <v>0.0001585352339540935</v>
+        <v>1.112931598981626e-05</v>
       </c>
       <c r="G41">
-        <v>2.627972862140338e-05</v>
+        <v>1.844860581840115e-06</v>
       </c>
       <c r="H41">
-        <v>0.02955432161397954</v>
+        <v>0.007830551186568118</v>
       </c>
       <c r="I41">
-        <v>0.02955432161397954</v>
+        <v>0.007830551186568117</v>
       </c>
       <c r="J41">
-        <v>0.02955432161397954</v>
+        <v>0.007830551186568118</v>
       </c>
       <c r="K41">
-        <v>1.000026870643594</v>
+        <v>0.9995718135623586</v>
       </c>
       <c r="L41">
-        <v>-0.5283202439965178</v>
+        <v>-0.07320105319415265</v>
       </c>
       <c r="M41">
-        <v>0.9998607547029679</v>
+        <v>0.9994972170848666</v>
       </c>
       <c r="N41">
-        <v>-0.5416171429510681</v>
+        <v>-0.07391015195961249</v>
       </c>
       <c r="O41">
-        <v>5.910864322795907</v>
+        <v>15.66110237313623</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2348,46 +2348,46 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.2980583149587822</v>
+        <v>0.2989731624909985</v>
       </c>
       <c r="C42">
-        <v>-0.2979316765556363</v>
+        <v>-3.101844604311657e-06</v>
       </c>
       <c r="D42">
-        <v>-0.2979695081552718</v>
+        <v>-0.2989284184237135</v>
       </c>
       <c r="E42">
-        <v>0.2979463976913598</v>
+        <v>1.051888317889015e-05</v>
       </c>
       <c r="F42">
-        <v>8.880680351036618e-05</v>
+        <v>4.474406728499636e-05</v>
       </c>
       <c r="G42">
-        <v>1.472113572342781e-05</v>
+        <v>7.417038574578495e-06</v>
       </c>
       <c r="H42">
-        <v>0.02211980099113829</v>
+        <v>0.01570094621314146</v>
       </c>
       <c r="I42">
-        <v>0.02211980099113829</v>
+        <v>0.01570094621314146</v>
       </c>
       <c r="J42">
-        <v>0.02211980099113829</v>
+        <v>0.01570094621314146</v>
       </c>
       <c r="K42">
-        <v>0.9999757097909894</v>
+        <v>0.9994315774506278</v>
       </c>
       <c r="L42">
-        <v>-0.5393072289565728</v>
+        <v>-0.07515506490752967</v>
       </c>
       <c r="M42">
-        <v>0.9998513840917449</v>
+        <v>0.9992820039421314</v>
       </c>
       <c r="N42">
-        <v>-0.5492596599310701</v>
+        <v>-0.07657678187448924</v>
       </c>
       <c r="O42">
-        <v>4.423960198227659</v>
+        <v>31.40189242628292</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2395,46 +2395,46 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>11.11809196720763</v>
+        <v>0.2490745175443628</v>
       </c>
       <c r="C43">
-        <v>-8.884898095434131</v>
+        <v>-5.490795627672012e-06</v>
       </c>
       <c r="D43">
-        <v>-11.10861015269592</v>
+        <v>-0.2490434756212257</v>
       </c>
       <c r="E43">
-        <v>8.889767768072245</v>
+        <v>1.063648656074445e-05</v>
       </c>
       <c r="F43">
-        <v>0.009481814511707043</v>
+        <v>3.104192313707621e-05</v>
       </c>
       <c r="G43">
-        <v>0.004869672638113443</v>
+        <v>5.14569093307244e-06</v>
       </c>
       <c r="H43">
-        <v>0.7466096016123339</v>
+        <v>0.01307773117362477</v>
       </c>
       <c r="I43">
-        <v>0.7466096016123341</v>
+        <v>0.01307773117362477</v>
       </c>
       <c r="J43">
-        <v>0.7466096016123341</v>
+        <v>0.01307773117362477</v>
       </c>
       <c r="K43">
-        <v>1.000513302864211</v>
+        <v>0.9996398935944936</v>
       </c>
       <c r="L43">
-        <v>-0.2779823673728393</v>
+        <v>-0.07457153702564159</v>
       </c>
       <c r="M43">
-        <v>1.000206530739358</v>
+        <v>0.9995153100823662</v>
       </c>
       <c r="N43">
-        <v>-0.317139405425304</v>
+        <v>-0.07575552942021566</v>
       </c>
       <c r="O43">
-        <v>74.66096016123342</v>
+        <v>26.15546234724954</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2442,46 +2442,46 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.971277768100637</v>
+        <v>0.09898605649527668</v>
       </c>
       <c r="C44">
-        <v>-2.149785564267884</v>
+        <v>-9.942582067354609e-06</v>
       </c>
       <c r="D44">
-        <v>-2.970647764768076</v>
+        <v>-0.09898115340759041</v>
       </c>
       <c r="E44">
-        <v>2.150109121534977</v>
+        <v>1.075534659034821e-05</v>
       </c>
       <c r="F44">
-        <v>0.0006300033325610244</v>
+        <v>4.903087686275454e-06</v>
       </c>
       <c r="G44">
-        <v>0.0003235572670932108</v>
+        <v>8.127645229935967e-07</v>
       </c>
       <c r="H44">
-        <v>0.1924505987384621</v>
+        <v>0.00519748118950903</v>
       </c>
       <c r="I44">
-        <v>0.1924505987384621</v>
+        <v>0.005197481189509028</v>
       </c>
       <c r="J44">
-        <v>0.1924505987384621</v>
+        <v>0.00519748118950903</v>
       </c>
       <c r="K44">
-        <v>1.000206530739358</v>
+        <v>0.9996035416542497</v>
       </c>
       <c r="L44">
-        <v>-0.317139405425304</v>
+        <v>-0.07577812936923634</v>
       </c>
       <c r="M44">
-        <v>1.000119068017713</v>
+        <v>0.9995540290360538</v>
       </c>
       <c r="N44">
-        <v>-0.3270051045191191</v>
+        <v>-0.07624888761180669</v>
       </c>
       <c r="O44">
-        <v>25.66007983179494</v>
+        <v>10.39496237901806</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2489,46 +2489,46 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.850622720295996</v>
+        <v>2.120177145339609</v>
       </c>
       <c r="C45">
-        <v>-2.150106642338693</v>
+        <v>0.0006176040034973017</v>
       </c>
       <c r="D45">
-        <v>-1.85024569589965</v>
+        <v>-2.119966775248235</v>
       </c>
       <c r="E45">
-        <v>2.150300274621262</v>
+        <v>-0.0005095620800262175</v>
       </c>
       <c r="F45">
-        <v>0.0003770243963461262</v>
+        <v>0.0002103700913740347</v>
       </c>
       <c r="G45">
-        <v>0.0001936322825684123</v>
+        <v>0.0001080419234710842</v>
       </c>
       <c r="H45">
-        <v>0.1488787006595109</v>
+        <v>0.1112089757831753</v>
       </c>
       <c r="I45">
-        <v>0.1488787006595109</v>
+        <v>0.1112089757831754</v>
       </c>
       <c r="J45">
-        <v>0.1488787006595109</v>
+        <v>0.1112089757831754</v>
       </c>
       <c r="K45">
-        <v>1.000119068017713</v>
+        <v>1.000642658975816</v>
       </c>
       <c r="L45">
-        <v>-0.3270051045191191</v>
+        <v>-0.04145313519285804</v>
       </c>
       <c r="M45">
-        <v>1.000084108185011</v>
+        <v>1.000543358777676</v>
       </c>
       <c r="N45">
-        <v>-0.3353279305399989</v>
+        <v>-0.04437149917284364</v>
       </c>
       <c r="O45">
-        <v>19.85049342126813</v>
+        <v>74.13931718878356</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2536,46 +2536,46 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.6501698529725009</v>
+        <v>2.119966604116055</v>
       </c>
       <c r="C46">
-        <v>-0.9502166502243345</v>
+        <v>0.0005095672720956358</v>
       </c>
       <c r="D46">
-        <v>-0.6501077449379762</v>
+        <v>-2.119756234058645</v>
       </c>
       <c r="E46">
-        <v>0.9502485476840412</v>
+        <v>-0.0004015253660677449</v>
       </c>
       <c r="F46">
-        <v>6.210803452466607e-05</v>
+        <v>0.000210370057410092</v>
       </c>
       <c r="G46">
-        <v>3.189745970666458e-05</v>
+        <v>0.0001080419060278909</v>
       </c>
       <c r="H46">
-        <v>0.06042570638444535</v>
+        <v>0.1112089668060089</v>
       </c>
       <c r="I46">
-        <v>0.06042570638444535</v>
+        <v>0.1112089668060089</v>
       </c>
       <c r="J46">
-        <v>0.06042570638444535</v>
+        <v>0.1112089668060089</v>
       </c>
       <c r="K46">
-        <v>1.000084108185011</v>
+        <v>1.000543358777676</v>
       </c>
       <c r="L46">
-        <v>-0.3353279305399989</v>
+        <v>-0.04437149917284364</v>
       </c>
       <c r="M46">
-        <v>1.000076512020994</v>
+        <v>1.000444061183732</v>
       </c>
       <c r="N46">
-        <v>-0.3387750784044432</v>
+        <v>-0.04729044222654773</v>
       </c>
       <c r="O46">
-        <v>8.05676085125938</v>
+        <v>74.13931120400595</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2583,46 +2583,46 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.3000012921600618</v>
+        <v>0.8175942356526097</v>
       </c>
       <c r="C47">
-        <v>-0.0001312838135621658</v>
+        <v>1.375923505297027e-05</v>
       </c>
       <c r="D47">
-        <v>0.3000055089072829</v>
+        <v>-0.8175629397335864</v>
       </c>
       <c r="E47">
-        <v>0.0001334494516412187</v>
+        <v>2.313730766357355e-06</v>
       </c>
       <c r="F47">
-        <v>4.216747221175154e-06</v>
+        <v>3.129591902328865e-05</v>
       </c>
       <c r="G47">
-        <v>2.165638079052856e-06</v>
+        <v>1.607296581932762e-05</v>
       </c>
       <c r="H47">
-        <v>0.01574478109594047</v>
+        <v>0.04289352102580288</v>
       </c>
       <c r="I47">
-        <v>0.01574478109594047</v>
+        <v>0.04289352102580288</v>
       </c>
       <c r="J47">
-        <v>0.01574478109594047</v>
+        <v>0.04289352102580288</v>
       </c>
       <c r="K47">
-        <v>1.000076512020994</v>
+        <v>1.000444061183732</v>
       </c>
       <c r="L47">
-        <v>-0.3387750784044432</v>
+        <v>-0.04729044222654773</v>
       </c>
       <c r="M47">
-        <v>1.000090572042529</v>
+        <v>1.000405765990947</v>
       </c>
       <c r="N47">
-        <v>-0.3383618320923105</v>
+        <v>-0.04841681780513459</v>
       </c>
       <c r="O47">
-        <v>2.099304146125396</v>
+        <v>42.89352102580288</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2630,46 +2630,46 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>8.137378024937631</v>
+        <v>0.5375598372318684</v>
       </c>
       <c r="C48">
-        <v>-6.739980050757886</v>
+        <v>-3.264505649779265e-06</v>
       </c>
       <c r="D48">
-        <v>-8.132148590940876</v>
+        <v>-0.5375463071961301</v>
       </c>
       <c r="E48">
-        <v>6.742665784761159</v>
+        <v>1.021326474508238e-05</v>
       </c>
       <c r="F48">
-        <v>0.005229433996754906</v>
+        <v>1.353003573834055e-05</v>
       </c>
       <c r="G48">
-        <v>0.002685734003272877</v>
+        <v>6.948759095303111e-06</v>
       </c>
       <c r="H48">
-        <v>0.5544663394832702</v>
+        <v>0.02820313037767937</v>
       </c>
       <c r="I48">
-        <v>0.5544663394832702</v>
+        <v>0.02820313037767937</v>
       </c>
       <c r="J48">
-        <v>0.5544663394832702</v>
+        <v>0.02820313037767937</v>
       </c>
       <c r="K48">
-        <v>1.000206530739358</v>
+        <v>1.000405765990947</v>
       </c>
       <c r="L48">
-        <v>-0.317139405425304</v>
+        <v>-0.04841681780513459</v>
       </c>
       <c r="M48">
-        <v>0.9999875984724159</v>
+        <v>1.000380586582663</v>
       </c>
       <c r="N48">
-        <v>-0.3464500880296919</v>
+        <v>-0.04915747823076295</v>
       </c>
       <c r="O48">
-        <v>73.92884526443602</v>
+        <v>28.20313037767937</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2677,46 +2677,46 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7.232332843946725</v>
+        <v>0.2375357532395679</v>
       </c>
       <c r="C49">
-        <v>-6.742663643031568</v>
+        <v>-1.128658761282222e-05</v>
       </c>
       <c r="D49">
-        <v>-7.227751269498315</v>
+        <v>-0.2375331112861588</v>
       </c>
       <c r="E49">
-        <v>6.745016649168035</v>
+        <v>1.264344269700938e-05</v>
       </c>
       <c r="F49">
-        <v>0.004581574448410564</v>
+        <v>2.641953409154851e-06</v>
       </c>
       <c r="G49">
-        <v>0.002353006136466718</v>
+        <v>1.356855084187151e-06</v>
       </c>
       <c r="H49">
-        <v>0.5189854916369446</v>
+        <v>0.01246265063055263</v>
       </c>
       <c r="I49">
-        <v>0.5189854916369446</v>
+        <v>0.01246265063055263</v>
       </c>
       <c r="J49">
-        <v>0.5189854916369446</v>
+        <v>0.01246265063055263</v>
       </c>
       <c r="K49">
-        <v>0.9999875984724159</v>
+        <v>1.000380586582663</v>
       </c>
       <c r="L49">
-        <v>-0.3464500880296919</v>
+        <v>-0.04915747823076295</v>
       </c>
       <c r="M49">
-        <v>0.9998110825560164</v>
+        <v>1.000369460297522</v>
       </c>
       <c r="N49">
-        <v>-0.3745313638325077</v>
+        <v>-0.04948479791113334</v>
       </c>
       <c r="O49">
-        <v>69.19806555159262</v>
+        <v>24.92530126110527</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -2724,46 +2724,46 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.928088339243293</v>
+        <v>1.750468161450952e-05</v>
       </c>
       <c r="C50">
-        <v>-5.445347863335761</v>
+        <v>-1.379846207825977e-05</v>
       </c>
       <c r="D50">
-        <v>-5.925050974923629</v>
+        <v>-1.750468159124637e-05</v>
       </c>
       <c r="E50">
-        <v>5.446907793653023</v>
+        <v>1.379846209020726e-05</v>
       </c>
       <c r="F50">
-        <v>0.003037364319664171</v>
+        <v>2.326314325635376e-14</v>
       </c>
       <c r="G50">
-        <v>0.00155993031726176</v>
+        <v>1.19474928946461e-14</v>
       </c>
       <c r="H50">
-        <v>0.4225676893319294</v>
+        <v>1.16945106533036e-06</v>
       </c>
       <c r="I50">
-        <v>0.4225676893319294</v>
+        <v>1.16945106533036e-06</v>
       </c>
       <c r="J50">
-        <v>0.4225676893319294</v>
+        <v>1.16945106533036e-06</v>
       </c>
       <c r="K50">
-        <v>0.9998110825560164</v>
+        <v>1.000369460297522</v>
       </c>
       <c r="L50">
-        <v>-0.3745313638325077</v>
+        <v>-0.04948479791113334</v>
       </c>
       <c r="M50">
-        <v>0.9996643951127117</v>
+        <v>1.000369459809517</v>
       </c>
       <c r="N50">
-        <v>-0.3973374404993696</v>
+        <v>-0.04948485904975085</v>
       </c>
       <c r="O50">
-        <v>56.34235857759059</v>
+        <v>0.00233890213066072</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -2771,46 +2771,46 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4.955544273339524</v>
+        <v>1.302168857680371</v>
       </c>
       <c r="C51">
-        <v>-5.446905874536608</v>
+        <v>0.0003869787535793747</v>
       </c>
       <c r="D51">
-        <v>-4.953364799586166</v>
+        <v>-1.302089471169388</v>
       </c>
       <c r="E51">
-        <v>5.448025209204999</v>
+        <v>-0.0003462074096671113</v>
       </c>
       <c r="F51">
-        <v>0.002179473753358252</v>
+        <v>7.938651098293725e-05</v>
       </c>
       <c r="G51">
-        <v>0.00111933466839087</v>
+        <v>4.077134391226346e-05</v>
       </c>
       <c r="H51">
-        <v>0.3866313444698592</v>
+        <v>0.06831580666660995</v>
       </c>
       <c r="I51">
-        <v>0.3866313444698593</v>
+        <v>0.06831580666660995</v>
       </c>
       <c r="J51">
-        <v>0.3866313444698593</v>
+        <v>0.06831580666660995</v>
       </c>
       <c r="K51">
-        <v>0.9996643951127117</v>
+        <v>1.000444061183732</v>
       </c>
       <c r="L51">
-        <v>-0.3973374404993696</v>
+        <v>-0.04729044222654773</v>
       </c>
       <c r="M51">
-        <v>0.999577736034482</v>
+        <v>1.000383060461808</v>
       </c>
       <c r="N51">
-        <v>-0.415743333184087</v>
+        <v>-0.04908346342067997</v>
       </c>
       <c r="O51">
-        <v>51.55084592931457</v>
+        <v>45.5438711110733</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -2818,46 +2818,46 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.953986297787775</v>
+        <v>1.077118119495353</v>
       </c>
       <c r="C52">
-        <v>-4.448641647275609</v>
+        <v>0.0003448316936024023</v>
       </c>
       <c r="D52">
-        <v>-3.952324924245298</v>
+        <v>-1.077063795495648</v>
       </c>
       <c r="E52">
-        <v>4.449494895909772</v>
+        <v>-0.0003169319604203164</v>
       </c>
       <c r="F52">
-        <v>0.001661373542477751</v>
+        <v>5.432399970550783e-05</v>
       </c>
       <c r="G52">
-        <v>0.0008532486341623624</v>
+        <v>2.789973318208586e-05</v>
       </c>
       <c r="H52">
-        <v>0.312522642799082</v>
+        <v>0.05651239489119463</v>
       </c>
       <c r="I52">
-        <v>0.312522642799082</v>
+        <v>0.05651239489119463</v>
       </c>
       <c r="J52">
-        <v>0.312522642799082</v>
+        <v>0.05651239489119463</v>
       </c>
       <c r="K52">
-        <v>0.999577736034482</v>
+        <v>1.000383060461808</v>
       </c>
       <c r="L52">
-        <v>-0.415743333184087</v>
+        <v>-0.04908346342067997</v>
       </c>
       <c r="M52">
-        <v>0.9994995288323182</v>
+        <v>1.000332598607336</v>
       </c>
       <c r="N52">
-        <v>-0.4331554398907389</v>
+        <v>-0.05056669993879868</v>
       </c>
       <c r="O52">
-        <v>41.66968570654427</v>
+        <v>37.67492992746308</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -2865,46 +2865,46 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.728510731258911</v>
+        <v>0.7521167822911768</v>
       </c>
       <c r="C53">
-        <v>-2.726853820099701</v>
+        <v>0.0003150119186329973</v>
       </c>
       <c r="D53">
-        <v>-2.727812739813032</v>
+        <v>-0.7520902924423372</v>
       </c>
       <c r="E53">
-        <v>2.727212294718819</v>
+        <v>-0.0003014072555252581</v>
       </c>
       <c r="F53">
-        <v>0.0006979914458793424</v>
+        <v>2.648984883968364e-05</v>
       </c>
       <c r="G53">
-        <v>0.0003584746191180876</v>
+        <v>1.360466310773914e-05</v>
       </c>
       <c r="H53">
-        <v>0.2025689576202681</v>
+        <v>0.03946277153759577</v>
       </c>
       <c r="I53">
-        <v>0.2025689576202682</v>
+        <v>0.03946277153759577</v>
       </c>
       <c r="J53">
-        <v>0.2025689576202682</v>
+        <v>0.03946277153759577</v>
       </c>
       <c r="K53">
-        <v>0.9994995288323182</v>
+        <v>1.000332598607336</v>
       </c>
       <c r="L53">
-        <v>-0.4331554398907389</v>
+        <v>-0.05056669993879868</v>
       </c>
       <c r="M53">
-        <v>0.9994372845306275</v>
+        <v>1.000297359090814</v>
       </c>
       <c r="N53">
-        <v>-0.4442507392345495</v>
+        <v>-0.05160228564847357</v>
       </c>
       <c r="O53">
-        <v>27.00919434936909</v>
+        <v>39.46277153759577</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -2912,46 +2912,46 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.916639808579313</v>
+        <v>0.5096676905454051</v>
       </c>
       <c r="C54">
-        <v>-1.916035026130554</v>
+        <v>0.0002989900911268692</v>
       </c>
       <c r="D54">
-        <v>-1.916295251989815</v>
+        <v>-0.5096572633620524</v>
       </c>
       <c r="E54">
-        <v>1.916211983588864</v>
+        <v>-0.0002936348957260334</v>
       </c>
       <c r="F54">
-        <v>0.0003445565894986125</v>
+        <v>1.042718335264592e-05</v>
       </c>
       <c r="G54">
-        <v>0.0001769574583105893</v>
+        <v>5.35519540083583e-06</v>
       </c>
       <c r="H54">
-        <v>0.1423239941544694</v>
+        <v>0.02674266863953989</v>
       </c>
       <c r="I54">
-        <v>0.1423239941544694</v>
+        <v>0.02674266863953988</v>
       </c>
       <c r="J54">
-        <v>0.1423239941544694</v>
+        <v>0.02674266863953989</v>
       </c>
       <c r="K54">
-        <v>0.9994372845306275</v>
+        <v>1.000297359090814</v>
       </c>
       <c r="L54">
-        <v>-0.4442507392345495</v>
+        <v>-0.05160228564847357</v>
       </c>
       <c r="M54">
-        <v>0.999393567906849</v>
+        <v>1.000276888115341</v>
       </c>
       <c r="N54">
-        <v>-0.4520469510868164</v>
+        <v>-0.05220362999598331</v>
       </c>
       <c r="O54">
-        <v>18.97653255392925</v>
+        <v>26.74266863953989</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -2959,46 +2959,46 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.8671680437155114</v>
+        <v>0.2597537516130968</v>
       </c>
       <c r="C55">
-        <v>-0.8670806055722717</v>
+        <v>0.0002908347736675165</v>
       </c>
       <c r="D55">
-        <v>-0.867107569459485</v>
+        <v>-0.2597505916542848</v>
       </c>
       <c r="E55">
-        <v>0.8671116639556137</v>
+        <v>-0.0002892118812406489</v>
       </c>
       <c r="F55">
-        <v>6.047425602639933e-05</v>
+        <v>3.159958811949082e-06</v>
       </c>
       <c r="G55">
-        <v>3.1058383341942e-05</v>
+        <v>1.622892426867654e-06</v>
       </c>
       <c r="H55">
-        <v>0.06440306037460664</v>
+        <v>0.01362977084384598</v>
       </c>
       <c r="I55">
-        <v>0.06440306037460662</v>
+        <v>0.01362977084384598</v>
       </c>
       <c r="J55">
-        <v>0.06440306037460664</v>
+        <v>0.01362977084384598</v>
       </c>
       <c r="K55">
-        <v>0.999393567906849</v>
+        <v>1.000276888115341</v>
       </c>
       <c r="L55">
-        <v>-0.4520469510868164</v>
+        <v>-0.05220362999598331</v>
       </c>
       <c r="M55">
-        <v>0.9993766151867124</v>
+        <v>1.000264712574786</v>
       </c>
       <c r="N55">
-        <v>-0.4550709914403444</v>
+        <v>-0.05256082669824121</v>
       </c>
       <c r="O55">
-        <v>8.587074716614218</v>
+        <v>13.62977084384598</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3006,46 +3006,46 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.22457472077246</v>
+        <v>0.4252135450922466</v>
       </c>
       <c r="C56">
-        <v>-1.723397036587944</v>
+        <v>1.690530639761892e-05</v>
       </c>
       <c r="D56">
-        <v>-1.224395014928404</v>
+        <v>-0.425205077070315</v>
       </c>
       <c r="E56">
-        <v>1.723489329959706</v>
+        <v>-1.255629760315408e-05</v>
       </c>
       <c r="F56">
-        <v>0.0001797058440555777</v>
+        <v>8.468021931606895e-06</v>
       </c>
       <c r="G56">
-        <v>9.229337176175356e-05</v>
+        <v>4.34900879446484e-06</v>
       </c>
       <c r="H56">
-        <v>0.1110202851172673</v>
+        <v>0.02231201690274833</v>
       </c>
       <c r="I56">
-        <v>0.1110202851172673</v>
+        <v>0.02231201690274832</v>
       </c>
       <c r="J56">
-        <v>0.1110202851172673</v>
+        <v>0.02231201690274833</v>
       </c>
       <c r="K56">
-        <v>0.9994995288323182</v>
+        <v>1.000264712574786</v>
       </c>
       <c r="L56">
-        <v>-0.4331554398907389</v>
+        <v>-0.05256082669824121</v>
       </c>
       <c r="M56">
-        <v>0.9994858914822263</v>
+        <v>1.000244792197567</v>
       </c>
       <c r="N56">
-        <v>-0.4385743212388087</v>
+        <v>-0.05314680408336969</v>
       </c>
       <c r="O56">
-        <v>14.80270468230231</v>
+        <v>44.62403380549665</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3053,46 +3053,46 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.3532029041173921</v>
+        <v>0.2776327558921172</v>
       </c>
       <c r="C57">
-        <v>-0.8522928473941478</v>
+        <v>9.193735707009533e-06</v>
       </c>
       <c r="D57">
-        <v>-0.3531686820363014</v>
+        <v>-0.2776291457317061</v>
       </c>
       <c r="E57">
-        <v>0.8523104231790043</v>
+        <v>-7.33962863166943e-06</v>
       </c>
       <c r="F57">
-        <v>3.422208109071789e-05</v>
+        <v>3.610160411116059e-06</v>
       </c>
       <c r="G57">
-        <v>1.757578485650502e-05</v>
+        <v>1.854107075340103e-06</v>
       </c>
       <c r="H57">
-        <v>0.04844784299060651</v>
+        <v>0.01456837436090323</v>
       </c>
       <c r="I57">
-        <v>0.04844784299060651</v>
+        <v>0.01456837436090323</v>
       </c>
       <c r="J57">
-        <v>0.04844784299060651</v>
+        <v>0.01456837436090323</v>
       </c>
       <c r="K57">
-        <v>0.9994858914822263</v>
+        <v>1.000244792197567</v>
       </c>
       <c r="L57">
-        <v>-0.4385743212388087</v>
+        <v>-0.05314680408336969</v>
       </c>
       <c r="M57">
-        <v>0.9994892887761517</v>
+        <v>1.000231785449296</v>
       </c>
       <c r="N57">
-        <v>-0.4409555954278133</v>
+        <v>-0.05352942118981676</v>
       </c>
       <c r="O57">
-        <v>6.459712398747534</v>
+        <v>29.13674872180646</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3100,46 +3100,46 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.4999926310159665</v>
+        <v>0.1286636119802552</v>
       </c>
       <c r="C58">
-        <v>0.0008551180063370999</v>
+        <v>3.864581279231362e-06</v>
       </c>
       <c r="D58">
-        <v>0.5000026823356973</v>
+        <v>-0.1286629473791261</v>
       </c>
       <c r="E58">
-        <v>-0.0008499558470679044</v>
+        <v>-3.52325526723419e-06</v>
       </c>
       <c r="F58">
-        <v>1.005131973086382e-05</v>
+        <v>6.646011291300269e-07</v>
       </c>
       <c r="G58">
-        <v>5.16215926919545e-06</v>
+        <v>3.413260119971721e-07</v>
       </c>
       <c r="H58">
-        <v>0.02625625502684784</v>
+        <v>0.006751523371959861</v>
       </c>
       <c r="I58">
-        <v>0.02625625502684784</v>
+        <v>0.006751523371959865</v>
       </c>
       <c r="J58">
-        <v>0.02625625502684784</v>
+        <v>0.006751523371959865</v>
       </c>
       <c r="K58">
-        <v>0.9994892887761517</v>
+        <v>1.000231785449296</v>
       </c>
       <c r="L58">
-        <v>-0.4409555954278133</v>
+        <v>-0.05352942118981676</v>
       </c>
       <c r="M58">
-        <v>0.9995093637914759</v>
+        <v>1.000226618759468</v>
       </c>
       <c r="N58">
-        <v>-0.4403620905859756</v>
+        <v>-0.05368141052753605</v>
       </c>
       <c r="O58">
-        <v>3.500834003579712</v>
+        <v>13.50304674391973</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3147,46 +3147,46 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.197532934818982</v>
+        <v>0.2845306447629518</v>
       </c>
       <c r="C59">
-        <v>-4.71393296936295</v>
+        <v>0.0001457004698771282</v>
       </c>
       <c r="D59">
-        <v>-4.195669091216663</v>
+        <v>-0.2845273947939938</v>
       </c>
       <c r="E59">
-        <v>4.714890202620437</v>
+        <v>-0.0001440313500172289</v>
       </c>
       <c r="F59">
-        <v>0.001863843602318838</v>
+        <v>3.249968958007887e-06</v>
       </c>
       <c r="G59">
-        <v>0.0009572332574876441</v>
+        <v>1.669119859899336e-06</v>
       </c>
       <c r="H59">
-        <v>0.331018736654642</v>
+        <v>0.01493003563949976</v>
       </c>
       <c r="I59">
-        <v>0.3310187366546419</v>
+        <v>0.01493003563949976</v>
       </c>
       <c r="J59">
-        <v>0.331018736654642</v>
+        <v>0.01493003563949976</v>
       </c>
       <c r="K59">
-        <v>1.00082054181485</v>
+        <v>1.000264712574786</v>
       </c>
       <c r="L59">
-        <v>-0.2388493521489393</v>
+        <v>-0.05256082669824121</v>
       </c>
       <c r="M59">
-        <v>1.000737413502135</v>
+        <v>1.000253284355988</v>
       </c>
       <c r="N59">
-        <v>-0.2572647854030278</v>
+        <v>-0.05289660507174689</v>
       </c>
       <c r="O59">
-        <v>66.20374733092839</v>
+        <v>29.86007127899952</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3194,46 +3194,46 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>11.12757063131037</v>
+        <v>0.168449952357447</v>
       </c>
       <c r="C60">
-        <v>-8.880030159466623</v>
+        <v>0.0001406928997513304</v>
       </c>
       <c r="D60">
-        <v>-11.11808881863221</v>
+        <v>-0.1684488132281678</v>
       </c>
       <c r="E60">
-        <v>8.884899831163063</v>
+        <v>-0.0001401078654548582</v>
       </c>
       <c r="F60">
-        <v>0.009481812678165724</v>
+        <v>1.139129279209561e-06</v>
       </c>
       <c r="G60">
-        <v>0.004869671696440037</v>
+        <v>5.850342964722058e-07</v>
       </c>
       <c r="H60">
-        <v>0.7466095294245525</v>
+        <v>0.008839093855864729</v>
       </c>
       <c r="I60">
-        <v>0.7466095294245524</v>
+        <v>0.008839093855864729</v>
       </c>
       <c r="J60">
-        <v>0.7466095294245525</v>
+        <v>0.008839093855864729</v>
       </c>
       <c r="K60">
-        <v>1.00082054181485</v>
+        <v>1.000253284355988</v>
       </c>
       <c r="L60">
-        <v>-0.2388493521489393</v>
+        <v>-0.05289660507174689</v>
       </c>
       <c r="M60">
-        <v>1.000513302864211</v>
+        <v>1.000246517332695</v>
       </c>
       <c r="N60">
-        <v>-0.2779823673728393</v>
+        <v>-0.05309527349548651</v>
       </c>
       <c r="O60">
-        <v>74.66095294245525</v>
+        <v>17.67818771172946</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3241,46 +3241,46 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>26.49633538470939</v>
+        <v>-0.0001262246095328818</v>
       </c>
       <c r="C61">
-        <v>-18.97380996954372</v>
+        <v>0.0001366730060877346</v>
       </c>
       <c r="D61">
-        <v>-26.36755619013097</v>
+        <v>0.0001262246109224041</v>
       </c>
       <c r="E61">
-        <v>19.048374616069</v>
+        <v>-0.0001366730053741033</v>
       </c>
       <c r="F61">
-        <v>0.1287791945784278</v>
+        <v>1.389522340505128e-12</v>
       </c>
       <c r="G61">
-        <v>0.07456464652527828</v>
+        <v>7.136312753838053e-13</v>
       </c>
       <c r="H61">
-        <v>1.705891846390301</v>
+        <v>9.76234176239006e-06</v>
       </c>
       <c r="I61">
-        <v>1.705891846390301</v>
+        <v>9.76234176239006e-06</v>
       </c>
       <c r="J61">
-        <v>1.705891846390301</v>
+        <v>9.76234176239006e-06</v>
       </c>
       <c r="K61">
-        <v>1.002697602681546</v>
+        <v>1.000246517332695</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>-0.05309527349548651</v>
       </c>
       <c r="M61">
-        <v>1.00082054181485</v>
+        <v>1.000246519582684</v>
       </c>
       <c r="N61">
-        <v>-0.2388493521489393</v>
+        <v>-0.05309481001298202</v>
       </c>
       <c r="O61">
-        <v>136.4713477112241</v>
+        <v>0.01952468352478012</v>
       </c>
     </row>
   </sheetData>
